--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -38,7 +38,7 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Ship</t>
+    <t>Column</t>
   </si>
   <si>
     <t>BR</t>
@@ -1376,7 +1376,7 @@
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <color rgb="00373b2b"/>
+      <color rgb="0029281a"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1384,7 +1384,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="0035c399"/>
+      <color rgb="003bad8b"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1392,7 +1392,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="00c9ccc1"/>
+      <color rgb="00e0e0d9"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1400,7 +1400,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="00373b2b"/>
+      <color rgb="0029281a"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1416,32 +1416,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c9ccc1"/>
+        <fgColor rgb="00e0e0d9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0082886f"/>
+        <fgColor rgb="00858468"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00b2b5a6"/>
+        <fgColor rgb="00c2c1b3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e1e3dd"/>
+        <fgColor rgb="00f0f0ec"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eeebe7"/>
+        <fgColor rgb="00f3f1ef"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fdfdfd"/>
+        <fgColor rgb="00f1efe9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1457,10 +1457,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="00b2b5a6"/>
+        <color rgb="00c2c1b3"/>
       </top>
       <bottom style="thin">
-        <color rgb="00b2b5a6"/>
+        <color rgb="00c2c1b3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,7 +1518,7 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="00cd4488"/>
+        <color rgb="00b5467d"/>
         <family val="2"/>
         <scheme val="minor"/>
         <sz val="14"/>
@@ -1528,7 +1528,7 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="00cd4488"/>
+        <color rgb="00b5467d"/>
         <family val="2"/>
         <scheme val="minor"/>
         <sz val="14"/>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -107,19 +107,19 @@
     <t>Aransas</t>
   </si>
   <si>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
     <t>Christian</t>
   </si>
   <si>
-    <t>Arecibo</t>
+    <t>Atchafalaya</t>
   </si>
   <si>
     <t>Santa Ana (i)</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
   </si>
   <si>
     <t>Atwoods</t>
@@ -2251,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="13">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D10" s="13">
         <f>COUNTA(F10:AD10)</f>
@@ -2347,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="13">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -107,19 +107,19 @@
     <t>Aransas</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
+    <t>Santa Ana (i)</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
     <t>St. Pavel</t>
-  </si>
-  <si>
-    <t>Arecibo</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>Santa Ana (i)</t>
   </si>
   <si>
     <t>Atwoods</t>
@@ -2251,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="13">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D10" s="13">
         <f>COUNTA(F10:AD10)</f>
@@ -2299,7 +2299,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -2347,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="13">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -197,13 +197,13 @@
     <t>Barranquilla</t>
   </si>
   <si>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
     <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Leopard (i)</t>
   </si>
   <si>
     <t>Basseterre Town</t>
@@ -2676,46 +2676,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="13">
         <v>360</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="13">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="13">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
       <c r="AE19" t="s">
         <v>50</v>
       </c>
@@ -2724,46 +2724,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="13">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="13">
         <v>360</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="13">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="13">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" t="s">
         <v>52</v>
       </c>
@@ -3012,46 +3012,46 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="10">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>290</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" t="s">
         <v>64</v>
       </c>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -1431,12 +1431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00f0f0ec"/>
+        <fgColor rgb="00e8e8e3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00f3f1ef"/>
+        <fgColor rgb="00edeae8"/>
       </patternFill>
     </fill>
     <fill>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="451">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -1142,88 +1142,88 @@
     <t>Blondel Cay</t>
   </si>
   <si>
+    <t>Bone Cay</t>
+  </si>
+  <si>
+    <t>Brewers</t>
+  </si>
+  <si>
+    <t>Bugle Cay</t>
+  </si>
+  <si>
     <t>Prince de Neufchâtel</t>
   </si>
   <si>
-    <t>Bone Cay</t>
+    <t>Carahatas</t>
   </si>
   <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Brewers</t>
+    <t>Cayo Largo</t>
   </si>
   <si>
     <t>Navy Brig</t>
   </si>
   <si>
-    <t>Bugle Cay</t>
+    <t>Cayo Vacas</t>
   </si>
   <si>
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Carahatas</t>
+    <t>Chinchorro</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Cayo Largo</t>
+    <t>Chiriquí</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Cayo Vacas</t>
+    <t>Cochinos</t>
   </si>
   <si>
     <t>Pickle</t>
   </si>
   <si>
-    <t>Chinchorro</t>
+    <t>Cocodrilo</t>
   </si>
   <si>
     <t>Cutter</t>
   </si>
   <si>
-    <t>Chiriquí</t>
+    <t>Croata</t>
   </si>
   <si>
     <t>GunBoat</t>
   </si>
   <si>
-    <t>Cochinos</t>
+    <t>Crown Haven</t>
   </si>
   <si>
     <t>Privateer</t>
   </si>
   <si>
-    <t>Cocodrilo</t>
+    <t>Daguilla</t>
   </si>
   <si>
     <t>Yacht (i)</t>
   </si>
   <si>
-    <t>Croata</t>
+    <t>Deadman’s Cay</t>
   </si>
   <si>
     <t>Yacht Silver (i)</t>
   </si>
   <si>
-    <t>Crown Haven</t>
+    <t>Frozen Cay</t>
   </si>
   <si>
     <t>Lynx</t>
-  </si>
-  <si>
-    <t>Daguilla</t>
-  </si>
-  <si>
-    <t>Deadman’s Cay</t>
-  </si>
-  <si>
-    <t>Frozen Cay</t>
   </si>
   <si>
     <t>George’s Town</t>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D24)</f>
+        <f>SUM(D5:D27)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E24)</f>
+        <f>SUM(E5:E27)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="10">
         <v>120</v>
@@ -6394,10 +6394,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D7" s="10">
         <f>COUNTA(F7:AD7)</f>
@@ -6438,46 +6438,46 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="13">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10">
+        <v>110</v>
+      </c>
+      <c r="D8" s="10">
         <f>COUNTA(F8:AD8)</f>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f>C8*D8</f>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
       <c r="AE8" t="s">
         <v>372</v>
       </c>
@@ -6486,46 +6486,46 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="10">
         <v>100</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <f>COUNTA(F9:AD9)</f>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
       <c r="AE9" t="s">
         <v>373</v>
       </c>
@@ -6534,46 +6534,46 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="13">
-        <v>90</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="10">
         <f>COUNTA(F10:AD10)</f>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <f>C10*D10</f>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
       <c r="AE10" t="s">
         <v>374</v>
       </c>
@@ -6586,10 +6586,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C11" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -6634,10 +6634,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="C12" s="13">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>
@@ -6671,7 +6671,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
       <c r="AE12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF12">
         <v>900</v>
@@ -6682,10 +6682,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="C13" s="13">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D13" s="13">
         <f>COUNTA(F13:AD13)</f>
@@ -6719,7 +6719,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF13">
         <v>900</v>
@@ -6730,10 +6730,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>380</v>
+        <v>105</v>
       </c>
       <c r="C14" s="13">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D14" s="13">
         <f>COUNTA(F14:AD14)</f>
@@ -6767,7 +6767,7 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF14">
         <v>900</v>
@@ -6778,10 +6778,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C15" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13">
         <f>COUNTA(F15:AD15)</f>
@@ -6815,7 +6815,7 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
       <c r="AE15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF15">
         <v>900</v>
@@ -6826,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C16" s="13">
         <v>60</v>
@@ -6863,7 +6863,7 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF16">
         <v>900</v>
@@ -6874,10 +6874,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C17" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D17" s="13">
         <f>COUNTA(F17:AD17)</f>
@@ -6911,151 +6911,151 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF17">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="10">
-        <v>35</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="A18" s="13">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="13">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13">
         <f>COUNTA(F18:AD18)</f>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="13">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
       <c r="AE18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AF18">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="10">
-        <v>30</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="A19" s="13">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="13">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="13">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
       <c r="AE19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF19">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="10">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="A20" s="13">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="13">
+        <v>45</v>
+      </c>
+      <c r="D20" s="13">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="13">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF20">
         <v>900</v>
@@ -7066,10 +7066,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C21" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" s="10">
         <f>COUNTA(F21:AD21)</f>
@@ -7103,7 +7103,7 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AF21">
         <v>900</v>
@@ -7114,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C22" s="10">
         <v>30</v>
@@ -7151,7 +7151,7 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AF22">
         <v>900</v>
@@ -7162,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C23" s="10">
         <v>30</v>
@@ -7199,7 +7199,7 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AF23">
         <v>900</v>
@@ -7210,10 +7210,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C24" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" s="10">
         <f>COUNTA(F24:AD24)</f>
@@ -7247,29 +7247,149 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF24">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10">
+        <f>COUNTA(F25:AD25)</f>
+      </c>
+      <c r="E25" s="10">
+        <f>C25*D25</f>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
       <c r="AE25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF25">
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="10">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10">
+        <f>COUNTA(F26:AD26)</f>
+      </c>
+      <c r="E26" s="10">
+        <f>C26*D26</f>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF26">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="10">
+        <v>25</v>
+      </c>
+      <c r="D27" s="10">
+        <f>COUNTA(F27:AD27)</f>
+      </c>
+      <c r="E27" s="10">
+        <f>C27*D27</f>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
       <c r="AE27" t="s">
         <v>404</v>
       </c>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="453">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -101,1168 +101,1174 @@
     <t>Apalachicola</t>
   </si>
   <si>
+    <t>Santa Ana (i)</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
     <t>Le Bucentaure</t>
   </si>
   <si>
-    <t>Aransas</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Arecibo</t>
-  </si>
-  <si>
-    <t>Santa Ana (i)</t>
-  </si>
-  <si>
     <t>Atchafalaya</t>
   </si>
   <si>
+    <t>San Pedro (i)</t>
+  </si>
+  <si>
+    <t>Atwoods</t>
+  </si>
+  <si>
     <t>St. Pavel</t>
   </si>
   <si>
-    <t>Atwoods</t>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
   </si>
   <si>
     <t>Admiraal de Ruyter</t>
   </si>
   <si>
-    <t>Aves</t>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Azua</t>
   </si>
   <si>
     <t>Implacable</t>
   </si>
   <si>
-    <t>Ayamonte</t>
+    <t>Bahía Escocesa</t>
   </si>
   <si>
     <t>Redoutable (i)</t>
   </si>
   <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>Azua</t>
+    <t>Bahía Honda</t>
   </si>
   <si>
     <t>Wasa</t>
   </si>
   <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Baní</t>
   </si>
   <si>
     <t>Constitution</t>
   </si>
   <si>
-    <t>Baja</t>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Rättvisan (i)</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
   </si>
   <si>
     <t>USS United States</t>
   </si>
   <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Rättvisan (i)</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Barataria</t>
+    <t>Basse-Terre</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Leopard (i)</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Rotterdam (i)</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
   </si>
   <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
   </si>
   <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Cuyo</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchilla</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanillo</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Montecristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santanillas</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Santo Tomé de Guayana</t>
+  </si>
+  <si>
+    <t>Sarazota</t>
+  </si>
+  <si>
+    <t>Savanna la Mar</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Selam</t>
+  </si>
+  <si>
+    <t>Sinamaica</t>
+  </si>
+  <si>
+    <t>Sisal</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Soto La Marina</t>
+  </si>
+  <si>
+    <t>Spanish Town</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Swannsborough</t>
+  </si>
+  <si>
+    <t>Talamanca</t>
+  </si>
+  <si>
+    <t>Tamiagua</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Tantun Cuzamil</t>
+  </si>
+  <si>
+    <t>Terre-de-Bas</t>
+  </si>
+  <si>
+    <t>Terrebonne</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Tolú</t>
+  </si>
+  <si>
+    <t>Tordo</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Triunfo de la Cruz</t>
+  </si>
+  <si>
+    <t>Truxillo</t>
+  </si>
+  <si>
+    <t>Tulum</t>
+  </si>
+  <si>
+    <t>Tumbado</t>
+  </si>
+  <si>
+    <t>Turneffe</t>
+  </si>
+  <si>
+    <t>Tuspan</t>
+  </si>
+  <si>
+    <t>Vera Cruz</t>
+  </si>
+  <si>
+    <t>Vermiou</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Vieques</t>
+  </si>
+  <si>
+    <t>Vieux-Fort</t>
+  </si>
+  <si>
+    <t>Wantlands Ferry</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Xpu Ha</t>
+  </si>
+  <si>
+    <t>Yaguaraparo</t>
+  </si>
+  <si>
+    <t>Ysil</t>
+  </si>
+  <si>
+    <t>Ahumada</t>
+  </si>
+  <si>
+    <t>Alabaster Rocks</t>
+  </si>
+  <si>
+    <t>Alacranes</t>
+  </si>
+  <si>
+    <t>Arcas</t>
+  </si>
+  <si>
+    <t>Arenas</t>
+  </si>
+  <si>
+    <t>Arthur’s Town</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Barcos</t>
+  </si>
+  <si>
+    <t>Baxo Nuevo</t>
+  </si>
+  <si>
+    <t>Bimini</t>
+  </si>
+  <si>
+    <t>Blondel Cay</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Bone Cay</t>
+  </si>
+  <si>
+    <t>L’Hermione (i)</t>
+  </si>
+  <si>
+    <t>Brewers</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Bugle Cay</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Carahatas</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Cayo Largo</t>
   </si>
   <si>
     <t>Santa Cecilia</t>
   </si>
   <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>L’Hermione (i)</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
+    <t>Cayo Vacas</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Chinchorro</t>
+  </si>
+  <si>
+    <t>Hercules (i)</t>
+  </si>
+  <si>
+    <t>Chiriquí</t>
   </si>
   <si>
     <t>La Renommée</t>
   </si>
   <si>
-    <t>Brunswick</t>
+    <t>Cochinos</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Buena Vista</t>
+    <t>Cocodrilo</t>
+  </si>
+  <si>
+    <t>Pandora (i)</t>
+  </si>
+  <si>
+    <t>Croata</t>
   </si>
   <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Hercules (i)</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Pandora (i)</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
+    <t>Crown Haven</t>
   </si>
   <si>
     <t>Le Requin (i)</t>
   </si>
   <si>
-    <t>Calobelo</t>
+    <t>Daguilla</t>
+  </si>
+  <si>
+    <t>Deadman’s Cay</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Frozen Cay</t>
+  </si>
+  <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>George’s Town</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Governor’s Harbour</t>
+  </si>
+  <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
+    <t>Green Cay</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Guacata</t>
   </si>
   <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Cuyo</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchilla</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanillo</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Montecristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Santa Marta</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Santanillas</t>
-  </si>
-  <si>
-    <t>Santiago de Cuba</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Santo Tomás</t>
-  </si>
-  <si>
-    <t>Santo Tomé de Guayana</t>
-  </si>
-  <si>
-    <t>Sarazota</t>
-  </si>
-  <si>
-    <t>Savanna la Mar</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Selam</t>
-  </si>
-  <si>
-    <t>Sinamaica</t>
-  </si>
-  <si>
-    <t>Sisal</t>
-  </si>
-  <si>
-    <t>Somerset</t>
-  </si>
-  <si>
-    <t>Soto La Marina</t>
-  </si>
-  <si>
-    <t>Spanish Town</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Swannsborough</t>
-  </si>
-  <si>
-    <t>Talamanca</t>
-  </si>
-  <si>
-    <t>Tamiagua</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>Tantun Cuzamil</t>
-  </si>
-  <si>
-    <t>Terre-de-Bas</t>
-  </si>
-  <si>
-    <t>Terrebonne</t>
-  </si>
-  <si>
-    <t>Tiburon</t>
-  </si>
-  <si>
-    <t>Tolú</t>
-  </si>
-  <si>
-    <t>Tordo</t>
-  </si>
-  <si>
-    <t>Trinidad</t>
-  </si>
-  <si>
-    <t>Triunfo de la Cruz</t>
-  </si>
-  <si>
-    <t>Truxillo</t>
-  </si>
-  <si>
-    <t>Tulum</t>
-  </si>
-  <si>
-    <t>Tumbado</t>
-  </si>
-  <si>
-    <t>Turneffe</t>
-  </si>
-  <si>
-    <t>Tuspan</t>
-  </si>
-  <si>
-    <t>Vera Cruz</t>
-  </si>
-  <si>
-    <t>Vermiou</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Vieques</t>
-  </si>
-  <si>
-    <t>Vieux-Fort</t>
-  </si>
-  <si>
-    <t>Wantlands Ferry</t>
-  </si>
-  <si>
-    <t>Willemstad</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Xpu Ha</t>
-  </si>
-  <si>
-    <t>Yaguaraparo</t>
-  </si>
-  <si>
-    <t>Ysil</t>
-  </si>
-  <si>
-    <t>Ahumada</t>
-  </si>
-  <si>
-    <t>Alabaster Rocks</t>
-  </si>
-  <si>
-    <t>Alacranes</t>
-  </si>
-  <si>
-    <t>Arcas</t>
-  </si>
-  <si>
-    <t>Arenas</t>
-  </si>
-  <si>
-    <t>Arthur’s Town</t>
-  </si>
-  <si>
-    <t>Asunción</t>
-  </si>
-  <si>
-    <t>Barcos</t>
-  </si>
-  <si>
-    <t>Baxo Nuevo</t>
-  </si>
-  <si>
-    <t>Bimini</t>
-  </si>
-  <si>
-    <t>Blondel Cay</t>
-  </si>
-  <si>
-    <t>Bone Cay</t>
-  </si>
-  <si>
-    <t>Brewers</t>
-  </si>
-  <si>
-    <t>Bugle Cay</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Carahatas</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Cayo Largo</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Cayo Vacas</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Chinchorro</t>
+    <t>Harbour Island</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Chiriquí</t>
+    <t>Haulover</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Cochinos</t>
+    <t>Hitten Hatcha</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>Islet</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Kemp’s Bay</t>
   </si>
   <si>
     <t>Pickle</t>
   </si>
   <si>
-    <t>Cocodrilo</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>Croata</t>
+    <t>La Anguila</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>La Bahía</t>
+  </si>
+  <si>
+    <t>Yacht (i)</t>
+  </si>
+  <si>
+    <t>La Bermeja</t>
+  </si>
+  <si>
+    <t>Yacht Silver (i)</t>
+  </si>
+  <si>
+    <t>La Desconocida</t>
   </si>
   <si>
     <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Crown Haven</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Daguilla</t>
-  </si>
-  <si>
-    <t>Yacht (i)</t>
-  </si>
-  <si>
-    <t>Deadman’s Cay</t>
-  </si>
-  <si>
-    <t>Yacht Silver (i)</t>
-  </si>
-  <si>
-    <t>Frozen Cay</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>George’s Town</t>
-  </si>
-  <si>
-    <t>Governor’s Harbour</t>
-  </si>
-  <si>
-    <t>Green Cay</t>
-  </si>
-  <si>
-    <t>Guacata</t>
-  </si>
-  <si>
-    <t>Harbour Island</t>
-  </si>
-  <si>
-    <t>Haulover</t>
-  </si>
-  <si>
-    <t>Hitten Hatcha</t>
-  </si>
-  <si>
-    <t>Islet</t>
-  </si>
-  <si>
-    <t>Kemp’s Bay</t>
-  </si>
-  <si>
-    <t>La Anguila</t>
-  </si>
-  <si>
-    <t>La Bahía</t>
-  </si>
-  <si>
-    <t>La Bermeja</t>
-  </si>
-  <si>
-    <t>La Desconocida</t>
   </si>
   <si>
     <t>La Guanaja</t>
@@ -1952,10 +1958,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D47)</f>
+        <f>SUM(D5:D34)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E47)</f>
+        <f>SUM(E5:E34)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -1999,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="10">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="D5" s="10">
         <f>COUNTA(F5:AD5)</f>
@@ -2053,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="10">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="D6" s="10">
         <f>COUNTA(F6:AD6)</f>
@@ -2107,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="10">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D7" s="10">
         <f>COUNTA(F7:AD7)</f>
@@ -2155,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="10">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D8" s="10">
         <f>COUNTA(F8:AD8)</f>
@@ -2196,46 +2202,46 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13">
-        <v>620</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="10">
+        <v>300</v>
+      </c>
+      <c r="D9" s="10">
         <f>COUNTA(F9:AD9)</f>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
       <c r="AE9" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="13">
-        <v>605</v>
+        <v>300</v>
       </c>
       <c r="D10" s="13">
         <f>COUNTA(F10:AD10)</f>
@@ -2299,7 +2305,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>605</v>
+        <v>300</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -2347,7 +2353,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="13">
-        <v>585</v>
+        <v>300</v>
       </c>
       <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>
@@ -2388,46 +2394,46 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="10">
-        <v>550</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="13">
+        <v>300</v>
+      </c>
+      <c r="D13" s="13">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="13">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="10">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D14" s="10">
         <f>COUNTA(F14:AD14)</f>
@@ -2491,7 +2497,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="10">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D15" s="10">
         <f>COUNTA(F15:AD15)</f>
@@ -2539,7 +2545,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="10">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D16" s="10">
         <f>COUNTA(F16:AD16)</f>
@@ -2587,7 +2593,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="10">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="D17" s="10">
         <f>COUNTA(F17:AD17)</f>
@@ -2635,7 +2641,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="10">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="D18" s="10">
         <f>COUNTA(F18:AD18)</f>
@@ -2676,46 +2682,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>4</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="13">
-        <v>360</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="10">
+        <v>200</v>
+      </c>
+      <c r="D19" s="10">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
       <c r="AE19" t="s">
         <v>50</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="13">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="D20" s="13">
         <f>COUNTA(F20:AD20)</f>
@@ -2779,7 +2785,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="13">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="D21" s="13">
         <f>COUNTA(F21:AD21)</f>
@@ -2827,7 +2833,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="D22" s="13">
         <f>COUNTA(F22:AD22)</f>
@@ -2875,7 +2881,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="13">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D23" s="13">
         <f>COUNTA(F23:AD23)</f>
@@ -2923,7 +2929,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="13">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D24" s="13">
         <f>COUNTA(F24:AD24)</f>
@@ -2971,7 +2977,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="13">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="D25" s="13">
         <f>COUNTA(F25:AD25)</f>
@@ -3012,46 +3018,46 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10">
-        <v>290</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="13">
+        <v>150</v>
+      </c>
+      <c r="D26" s="13">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" t="s">
         <v>64</v>
       </c>
@@ -3060,46 +3066,46 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>5</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="13">
+        <v>4</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10">
-        <v>270</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C27" s="13">
+        <v>100</v>
+      </c>
+      <c r="D27" s="13">
         <f>COUNTA(F27:AD27)</f>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="13">
         <f>C27*D27</f>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
       <c r="AE27" t="s">
         <v>66</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="10">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="D28" s="10">
         <f>COUNTA(F28:AD28)</f>
@@ -3163,7 +3169,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="10">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D29" s="10">
         <f>COUNTA(F29:AD29)</f>
@@ -3211,7 +3217,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D30" s="10">
         <f>COUNTA(F30:AD30)</f>
@@ -3259,7 +3265,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D31" s="10">
         <f>COUNTA(F31:AD31)</f>
@@ -3307,7 +3313,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="10">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D32" s="10">
         <f>COUNTA(F32:AD32)</f>
@@ -3355,7 +3361,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="10">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D33" s="10">
         <f>COUNTA(F33:AD33)</f>
@@ -3396,46 +3402,46 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="13">
+        <v>6</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="10">
-        <v>180</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="C34" s="13">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13">
         <f>COUNTA(F34:AD34)</f>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="13">
         <f>C34*D34</f>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
       <c r="AE34" t="s">
         <v>80</v>
       </c>
@@ -3443,625 +3449,105 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>5</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE35" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="10">
-        <v>160</v>
-      </c>
-      <c r="D35" s="10">
-        <f>COUNTA(F35:AD35)</f>
-      </c>
-      <c r="E35" s="10">
-        <f>C35*D35</f>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" t="s">
+      <c r="AF35">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="36" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE36" t="s">
         <v>82</v>
       </c>
-      <c r="AF35">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>5</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="AF36">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="37" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE37" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="10">
-        <v>150</v>
-      </c>
-      <c r="D36" s="10">
-        <f>COUNTA(F36:AD36)</f>
-      </c>
-      <c r="E36" s="10">
-        <f>C36*D36</f>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF36">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>5</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="10">
-        <v>140</v>
-      </c>
-      <c r="D37" s="10">
-        <f>COUNTA(F37:AD37)</f>
-      </c>
-      <c r="E37" s="10">
-        <f>C37*D37</f>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" t="s">
-        <v>86</v>
       </c>
       <c r="AF37">
         <v>20000</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>5</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="10">
-        <v>120</v>
-      </c>
-      <c r="D38" s="10">
-        <f>COUNTA(F38:AD38)</f>
-      </c>
-      <c r="E38" s="10">
-        <f>C38*D38</f>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
+    <row r="38" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF38">
         <v>10600</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF39">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="40" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF40">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="41" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF41">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="42" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF42">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="43" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE43" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="10">
-        <v>120</v>
-      </c>
-      <c r="D39" s="10">
-        <f>COUNTA(F39:AD39)</f>
-      </c>
-      <c r="E39" s="10">
-        <f>C39*D39</f>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" t="s">
+      <c r="AF43">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="44" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE44" t="s">
         <v>90</v>
       </c>
-      <c r="AF39">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="AF44">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="45" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE45" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="10">
-        <v>120</v>
-      </c>
-      <c r="D40" s="10">
-        <f>COUNTA(F40:AD40)</f>
-      </c>
-      <c r="E40" s="10">
-        <f>C40*D40</f>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" t="s">
+      <c r="AF45">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="46" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE46" t="s">
         <v>92</v>
-      </c>
-      <c r="AF40">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="10">
-        <v>110</v>
-      </c>
-      <c r="D41" s="10">
-        <f>COUNTA(F41:AD41)</f>
-      </c>
-      <c r="E41" s="10">
-        <f>C41*D41</f>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF41">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="10">
-        <v>100</v>
-      </c>
-      <c r="D42" s="10">
-        <f>COUNTA(F42:AD42)</f>
-      </c>
-      <c r="E42" s="10">
-        <f>C42*D42</f>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF42">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="10">
-        <v>100</v>
-      </c>
-      <c r="D43" s="10">
-        <f>COUNTA(F43:AD43)</f>
-      </c>
-      <c r="E43" s="10">
-        <f>C43*D43</f>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF43">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>6</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="13">
-        <v>100</v>
-      </c>
-      <c r="D44" s="13">
-        <f>COUNTA(F44:AD44)</f>
-      </c>
-      <c r="E44" s="13">
-        <f>C44*D44</f>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF44">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>6</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="13">
-        <v>100</v>
-      </c>
-      <c r="D45" s="13">
-        <f>COUNTA(F45:AD45)</f>
-      </c>
-      <c r="E45" s="13">
-        <f>C45*D45</f>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF45">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>6</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="13">
-        <v>90</v>
-      </c>
-      <c r="D46" s="13">
-        <f>COUNTA(F46:AD46)</f>
-      </c>
-      <c r="E46" s="13">
-        <f>C46*D46</f>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" t="s">
-        <v>104</v>
       </c>
       <c r="AF46">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>6</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="13">
-        <v>80</v>
-      </c>
-      <c r="D47" s="13">
-        <f>COUNTA(F47:AD47)</f>
-      </c>
-      <c r="E47" s="13">
-        <f>C47*D47</f>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
+    <row r="47" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE47" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AF47">
         <v>5700</v>
@@ -4069,7 +3555,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AF48">
         <v>5700</v>
@@ -4077,7 +3563,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AF49">
         <v>5700</v>
@@ -4085,7 +3571,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AF50">
         <v>5700</v>
@@ -4093,7 +3579,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AF51">
         <v>20000</v>
@@ -4101,7 +3587,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AF52">
         <v>20000</v>
@@ -4109,7 +3595,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AF53">
         <v>10600</v>
@@ -4117,7 +3603,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AF54">
         <v>10600</v>
@@ -4125,7 +3611,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AF55">
         <v>5700</v>
@@ -4133,7 +3619,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF56">
         <v>20000</v>
@@ -4141,7 +3627,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AF57">
         <v>5700</v>
@@ -4149,7 +3635,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="AF58">
         <v>5700</v>
@@ -4157,7 +3643,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AF59">
         <v>10600</v>
@@ -4165,7 +3651,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AF60">
         <v>5700</v>
@@ -4173,7 +3659,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AF61">
         <v>5700</v>
@@ -4181,7 +3667,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="AF62">
         <v>5700</v>
@@ -4189,7 +3675,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AF63">
         <v>5700</v>
@@ -4197,7 +3683,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AF64">
         <v>5700</v>
@@ -4205,7 +3691,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="AF65">
         <v>20000</v>
@@ -4213,7 +3699,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AF66">
         <v>5700</v>
@@ -4221,7 +3707,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="AF67">
         <v>10600</v>
@@ -4229,7 +3715,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AF68">
         <v>20000</v>
@@ -4237,7 +3723,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AF69">
         <v>20000</v>
@@ -4245,7 +3731,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="AF70">
         <v>10600</v>
@@ -4253,7 +3739,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="AF71">
         <v>5700</v>
@@ -4261,7 +3747,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="AF72">
         <v>5700</v>
@@ -4269,7 +3755,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AF73">
         <v>5700</v>
@@ -4277,7 +3763,7 @@
     </row>
     <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AF74">
         <v>5700</v>
@@ -4285,7 +3771,7 @@
     </row>
     <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AF75">
         <v>5700</v>
@@ -4293,7 +3779,7 @@
     </row>
     <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF76">
         <v>5700</v>
@@ -4301,7 +3787,7 @@
     </row>
     <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AF77">
         <v>5700</v>
@@ -4309,7 +3795,7 @@
     </row>
     <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AF78">
         <v>5700</v>
@@ -4317,7 +3803,7 @@
     </row>
     <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AF79">
         <v>20000</v>
@@ -4325,7 +3811,7 @@
     </row>
     <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AF80">
         <v>5700</v>
@@ -4333,7 +3819,7 @@
     </row>
     <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AF81">
         <v>5700</v>
@@ -4341,7 +3827,7 @@
     </row>
     <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AF82">
         <v>20000</v>
@@ -4349,7 +3835,7 @@
     </row>
     <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="AF83">
         <v>5700</v>
@@ -4357,7 +3843,7 @@
     </row>
     <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AF84">
         <v>10600</v>
@@ -4365,7 +3851,7 @@
     </row>
     <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AF85">
         <v>5700</v>
@@ -4373,7 +3859,7 @@
     </row>
     <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AF86">
         <v>5700</v>
@@ -4381,7 +3867,7 @@
     </row>
     <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AF87">
         <v>5700</v>
@@ -4389,7 +3875,7 @@
     </row>
     <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AF88">
         <v>5700</v>
@@ -4397,7 +3883,7 @@
     </row>
     <row r="89" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE89" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AF89">
         <v>5700</v>
@@ -4405,7 +3891,7 @@
     </row>
     <row r="90" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE90" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AF90">
         <v>5700</v>
@@ -4413,7 +3899,7 @@
     </row>
     <row r="91" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE91" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AF91">
         <v>5700</v>
@@ -4421,7 +3907,7 @@
     </row>
     <row r="92" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE92" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AF92">
         <v>10600</v>
@@ -4429,7 +3915,7 @@
     </row>
     <row r="93" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE93" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AF93">
         <v>5700</v>
@@ -4437,7 +3923,7 @@
     </row>
     <row r="94" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE94" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AF94">
         <v>5700</v>
@@ -4445,7 +3931,7 @@
     </row>
     <row r="95" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE95" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AF95">
         <v>5700</v>
@@ -4453,7 +3939,7 @@
     </row>
     <row r="96" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE96" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AF96">
         <v>5700</v>
@@ -4461,7 +3947,7 @@
     </row>
     <row r="97" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE97" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AF97">
         <v>5700</v>
@@ -4469,7 +3955,7 @@
     </row>
     <row r="98" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE98" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AF98">
         <v>10600</v>
@@ -4477,7 +3963,7 @@
     </row>
     <row r="99" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE99" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="AF99">
         <v>20000</v>
@@ -4485,7 +3971,7 @@
     </row>
     <row r="100" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE100" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AF100">
         <v>10600</v>
@@ -4493,7 +3979,7 @@
     </row>
     <row r="101" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE101" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AF101">
         <v>5700</v>
@@ -4501,7 +3987,7 @@
     </row>
     <row r="102" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE102" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AF102">
         <v>5700</v>
@@ -4509,7 +3995,7 @@
     </row>
     <row r="103" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE103" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AF103">
         <v>5700</v>
@@ -4517,7 +4003,7 @@
     </row>
     <row r="104" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE104" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AF104">
         <v>20000</v>
@@ -4525,7 +4011,7 @@
     </row>
     <row r="105" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE105" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AF105">
         <v>5700</v>
@@ -4533,7 +4019,7 @@
     </row>
     <row r="106" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE106" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AF106">
         <v>5700</v>
@@ -4541,7 +4027,7 @@
     </row>
     <row r="107" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE107" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AF107">
         <v>10600</v>
@@ -4549,7 +4035,7 @@
     </row>
     <row r="108" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE108" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AF108">
         <v>10600</v>
@@ -4557,7 +4043,7 @@
     </row>
     <row r="109" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE109" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AF109">
         <v>5700</v>
@@ -4565,7 +4051,7 @@
     </row>
     <row r="110" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE110" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AF110">
         <v>5700</v>
@@ -4573,7 +4059,7 @@
     </row>
     <row r="111" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AF111">
         <v>5700</v>
@@ -4581,7 +4067,7 @@
     </row>
     <row r="112" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE112" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AF112">
         <v>5700</v>
@@ -4589,7 +4075,7 @@
     </row>
     <row r="113" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE113" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AF113">
         <v>10600</v>
@@ -4597,7 +4083,7 @@
     </row>
     <row r="114" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE114" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AF114">
         <v>5700</v>
@@ -4605,7 +4091,7 @@
     </row>
     <row r="115" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE115" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AF115">
         <v>5700</v>
@@ -4613,7 +4099,7 @@
     </row>
     <row r="116" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE116" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AF116">
         <v>5700</v>
@@ -4621,7 +4107,7 @@
     </row>
     <row r="117" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE117" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AF117">
         <v>10600</v>
@@ -4629,7 +4115,7 @@
     </row>
     <row r="118" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE118" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AF118">
         <v>20000</v>
@@ -4637,7 +4123,7 @@
     </row>
     <row r="119" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE119" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AF119">
         <v>5700</v>
@@ -4645,7 +4131,7 @@
     </row>
     <row r="120" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE120" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AF120">
         <v>10600</v>
@@ -4653,7 +4139,7 @@
     </row>
     <row r="121" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE121" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AF121">
         <v>5700</v>
@@ -4661,7 +4147,7 @@
     </row>
     <row r="122" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE122" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AF122">
         <v>10600</v>
@@ -4669,7 +4155,7 @@
     </row>
     <row r="123" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE123" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AF123">
         <v>10600</v>
@@ -4677,7 +4163,7 @@
     </row>
     <row r="124" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE124" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AF124">
         <v>5700</v>
@@ -4685,7 +4171,7 @@
     </row>
     <row r="125" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE125" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AF125">
         <v>10600</v>
@@ -4693,7 +4179,7 @@
     </row>
     <row r="126" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE126" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF126">
         <v>5700</v>
@@ -4701,7 +4187,7 @@
     </row>
     <row r="127" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE127" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF127">
         <v>5700</v>
@@ -4709,7 +4195,7 @@
     </row>
     <row r="128" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE128" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AF128">
         <v>5700</v>
@@ -4717,7 +4203,7 @@
     </row>
     <row r="129" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE129" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AF129">
         <v>20000</v>
@@ -4725,7 +4211,7 @@
     </row>
     <row r="130" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE130" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AF130">
         <v>10600</v>
@@ -4733,7 +4219,7 @@
     </row>
     <row r="131" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE131" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AF131">
         <v>5700</v>
@@ -4741,7 +4227,7 @@
     </row>
     <row r="132" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE132" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF132">
         <v>5700</v>
@@ -4749,7 +4235,7 @@
     </row>
     <row r="133" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE133" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AF133">
         <v>20000</v>
@@ -4757,7 +4243,7 @@
     </row>
     <row r="134" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE134" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AF134">
         <v>5700</v>
@@ -4765,7 +4251,7 @@
     </row>
     <row r="135" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE135" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="AF135">
         <v>5700</v>
@@ -4773,7 +4259,7 @@
     </row>
     <row r="136" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE136" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AF136">
         <v>5700</v>
@@ -4781,7 +4267,7 @@
     </row>
     <row r="137" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE137" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AF137">
         <v>5700</v>
@@ -4789,7 +4275,7 @@
     </row>
     <row r="138" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE138" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AF138">
         <v>5700</v>
@@ -4797,7 +4283,7 @@
     </row>
     <row r="139" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE139" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AF139">
         <v>5700</v>
@@ -4805,7 +4291,7 @@
     </row>
     <row r="140" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE140" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AF140">
         <v>10600</v>
@@ -4813,7 +4299,7 @@
     </row>
     <row r="141" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE141" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AF141">
         <v>5700</v>
@@ -4821,7 +4307,7 @@
     </row>
     <row r="142" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE142" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AF142">
         <v>5700</v>
@@ -4829,7 +4315,7 @@
     </row>
     <row r="143" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE143" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AF143">
         <v>5700</v>
@@ -4837,7 +4323,7 @@
     </row>
     <row r="144" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE144" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AF144">
         <v>5700</v>
@@ -4845,7 +4331,7 @@
     </row>
     <row r="145" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE145" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF145">
         <v>10600</v>
@@ -4853,7 +4339,7 @@
     </row>
     <row r="146" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE146" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AF146">
         <v>20000</v>
@@ -4861,7 +4347,7 @@
     </row>
     <row r="147" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE147" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AF147">
         <v>10600</v>
@@ -4869,7 +4355,7 @@
     </row>
     <row r="148" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE148" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AF148">
         <v>5700</v>
@@ -4877,7 +4363,7 @@
     </row>
     <row r="149" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE149" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AF149">
         <v>5700</v>
@@ -4885,7 +4371,7 @@
     </row>
     <row r="150" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE150" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AF150">
         <v>5700</v>
@@ -4893,7 +4379,7 @@
     </row>
     <row r="151" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE151" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AF151">
         <v>5700</v>
@@ -4901,7 +4387,7 @@
     </row>
     <row r="152" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE152" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AF152">
         <v>10600</v>
@@ -4909,7 +4395,7 @@
     </row>
     <row r="153" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE153" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AF153">
         <v>5700</v>
@@ -4917,7 +4403,7 @@
     </row>
     <row r="154" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE154" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AF154">
         <v>5700</v>
@@ -4925,7 +4411,7 @@
     </row>
     <row r="155" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE155" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AF155">
         <v>5700</v>
@@ -4933,7 +4419,7 @@
     </row>
     <row r="156" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE156" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AF156">
         <v>10600</v>
@@ -4941,7 +4427,7 @@
     </row>
     <row r="157" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE157" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AF157">
         <v>5700</v>
@@ -4949,7 +4435,7 @@
     </row>
     <row r="158" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE158" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AF158">
         <v>20000</v>
@@ -4957,7 +4443,7 @@
     </row>
     <row r="159" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE159" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AF159">
         <v>5700</v>
@@ -4965,7 +4451,7 @@
     </row>
     <row r="160" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE160" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AF160">
         <v>10600</v>
@@ -4973,7 +4459,7 @@
     </row>
     <row r="161" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE161" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AF161">
         <v>5700</v>
@@ -4981,7 +4467,7 @@
     </row>
     <row r="162" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE162" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AF162">
         <v>20000</v>
@@ -4989,7 +4475,7 @@
     </row>
     <row r="163" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE163" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF163">
         <v>10600</v>
@@ -4997,7 +4483,7 @@
     </row>
     <row r="164" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE164" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="AF164">
         <v>5700</v>
@@ -5005,7 +4491,7 @@
     </row>
     <row r="165" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE165" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AF165">
         <v>5700</v>
@@ -5013,7 +4499,7 @@
     </row>
     <row r="166" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE166" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AF166">
         <v>10600</v>
@@ -5021,7 +4507,7 @@
     </row>
     <row r="167" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE167" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF167">
         <v>10600</v>
@@ -5029,7 +4515,7 @@
     </row>
     <row r="168" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE168" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="AF168">
         <v>20000</v>
@@ -5037,7 +4523,7 @@
     </row>
     <row r="169" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE169" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AF169">
         <v>5700</v>
@@ -5045,7 +4531,7 @@
     </row>
     <row r="170" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE170" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AF170">
         <v>5700</v>
@@ -5053,7 +4539,7 @@
     </row>
     <row r="171" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE171" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AF171">
         <v>5700</v>
@@ -5061,7 +4547,7 @@
     </row>
     <row r="172" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE172" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AF172">
         <v>5700</v>
@@ -5069,7 +4555,7 @@
     </row>
     <row r="173" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE173" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="AF173">
         <v>5700</v>
@@ -5077,7 +4563,7 @@
     </row>
     <row r="174" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE174" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="AF174">
         <v>5700</v>
@@ -5085,7 +4571,7 @@
     </row>
     <row r="175" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE175" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AF175">
         <v>5700</v>
@@ -5093,7 +4579,7 @@
     </row>
     <row r="176" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE176" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="AF176">
         <v>5700</v>
@@ -5101,7 +4587,7 @@
     </row>
     <row r="177" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE177" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="AF177">
         <v>20000</v>
@@ -5109,7 +4595,7 @@
     </row>
     <row r="178" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE178" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AF178">
         <v>20000</v>
@@ -5117,7 +4603,7 @@
     </row>
     <row r="179" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE179" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AF179">
         <v>20000</v>
@@ -5125,7 +4611,7 @@
     </row>
     <row r="180" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE180" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AF180">
         <v>5700</v>
@@ -5133,7 +4619,7 @@
     </row>
     <row r="181" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE181" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="AF181">
         <v>5700</v>
@@ -5141,7 +4627,7 @@
     </row>
     <row r="182" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE182" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AF182">
         <v>10600</v>
@@ -5149,7 +4635,7 @@
     </row>
     <row r="183" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE183" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AF183">
         <v>20000</v>
@@ -5157,7 +4643,7 @@
     </row>
     <row r="184" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE184" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AF184">
         <v>10600</v>
@@ -5165,7 +4651,7 @@
     </row>
     <row r="185" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE185" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AF185">
         <v>5700</v>
@@ -5173,7 +4659,7 @@
     </row>
     <row r="186" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE186" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AF186">
         <v>5700</v>
@@ -5181,7 +4667,7 @@
     </row>
     <row r="187" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE187" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AF187">
         <v>5700</v>
@@ -5189,7 +4675,7 @@
     </row>
     <row r="188" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE188" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="AF188">
         <v>10600</v>
@@ -5197,7 +4683,7 @@
     </row>
     <row r="189" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE189" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AF189">
         <v>5700</v>
@@ -5205,7 +4691,7 @@
     </row>
     <row r="190" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE190" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AF190">
         <v>10600</v>
@@ -5213,7 +4699,7 @@
     </row>
     <row r="191" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE191" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AF191">
         <v>10600</v>
@@ -5221,7 +4707,7 @@
     </row>
     <row r="192" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE192" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="AF192">
         <v>5700</v>
@@ -5229,7 +4715,7 @@
     </row>
     <row r="193" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE193" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AF193">
         <v>5700</v>
@@ -5237,7 +4723,7 @@
     </row>
     <row r="194" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE194" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AF194">
         <v>5700</v>
@@ -5245,7 +4731,7 @@
     </row>
     <row r="195" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE195" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AF195">
         <v>5700</v>
@@ -5253,7 +4739,7 @@
     </row>
     <row r="196" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE196" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AF196">
         <v>5700</v>
@@ -5261,7 +4747,7 @@
     </row>
     <row r="197" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE197" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AF197">
         <v>5700</v>
@@ -5269,7 +4755,7 @@
     </row>
     <row r="198" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE198" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AF198">
         <v>10600</v>
@@ -5277,7 +4763,7 @@
     </row>
     <row r="199" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE199" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="AF199">
         <v>10600</v>
@@ -5285,7 +4771,7 @@
     </row>
     <row r="200" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE200" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AF200">
         <v>10600</v>
@@ -5293,7 +4779,7 @@
     </row>
     <row r="201" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE201" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AF201">
         <v>10600</v>
@@ -5301,7 +4787,7 @@
     </row>
     <row r="202" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE202" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AF202">
         <v>20000</v>
@@ -5309,7 +4795,7 @@
     </row>
     <row r="203" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE203" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AF203">
         <v>10600</v>
@@ -5317,7 +4803,7 @@
     </row>
     <row r="204" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE204" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AF204">
         <v>10600</v>
@@ -5325,7 +4811,7 @@
     </row>
     <row r="205" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE205" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AF205">
         <v>5700</v>
@@ -5333,7 +4819,7 @@
     </row>
     <row r="206" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE206" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AF206">
         <v>20000</v>
@@ -5341,7 +4827,7 @@
     </row>
     <row r="207" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE207" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AF207">
         <v>5700</v>
@@ -5349,7 +4835,7 @@
     </row>
     <row r="208" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE208" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AF208">
         <v>10600</v>
@@ -5357,7 +4843,7 @@
     </row>
     <row r="209" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE209" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="AF209">
         <v>20000</v>
@@ -5365,7 +4851,7 @@
     </row>
     <row r="210" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE210" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AF210">
         <v>10600</v>
@@ -5373,7 +4859,7 @@
     </row>
     <row r="211" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE211" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AF211">
         <v>5700</v>
@@ -5381,7 +4867,7 @@
     </row>
     <row r="212" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE212" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AF212">
         <v>5700</v>
@@ -5389,7 +4875,7 @@
     </row>
     <row r="213" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE213" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AF213">
         <v>20000</v>
@@ -5397,7 +4883,7 @@
     </row>
     <row r="214" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE214" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AF214">
         <v>5700</v>
@@ -5405,7 +4891,7 @@
     </row>
     <row r="215" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE215" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AF215">
         <v>20000</v>
@@ -5413,7 +4899,7 @@
     </row>
     <row r="216" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE216" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AF216">
         <v>5700</v>
@@ -5421,7 +4907,7 @@
     </row>
     <row r="217" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE217" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="AF217">
         <v>10600</v>
@@ -5429,7 +4915,7 @@
     </row>
     <row r="218" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE218" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="AF218">
         <v>20000</v>
@@ -5437,7 +4923,7 @@
     </row>
     <row r="219" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE219" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AF219">
         <v>5700</v>
@@ -5445,7 +4931,7 @@
     </row>
     <row r="220" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE220" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AF220">
         <v>5700</v>
@@ -5453,7 +4939,7 @@
     </row>
     <row r="221" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE221" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AF221">
         <v>10600</v>
@@ -5461,7 +4947,7 @@
     </row>
     <row r="222" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE222" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AF222">
         <v>5700</v>
@@ -5469,7 +4955,7 @@
     </row>
     <row r="223" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE223" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AF223">
         <v>10600</v>
@@ -5477,7 +4963,7 @@
     </row>
     <row r="224" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE224" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AF224">
         <v>10600</v>
@@ -5485,7 +4971,7 @@
     </row>
     <row r="225" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE225" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="AF225">
         <v>5700</v>
@@ -5493,7 +4979,7 @@
     </row>
     <row r="226" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE226" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AF226">
         <v>5700</v>
@@ -5501,7 +4987,7 @@
     </row>
     <row r="227" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE227" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AF227">
         <v>20000</v>
@@ -5509,7 +4995,7 @@
     </row>
     <row r="228" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE228" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="AF228">
         <v>10600</v>
@@ -5517,7 +5003,7 @@
     </row>
     <row r="229" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE229" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AF229">
         <v>20000</v>
@@ -5525,7 +5011,7 @@
     </row>
     <row r="230" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE230" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AF230">
         <v>20000</v>
@@ -5533,7 +5019,7 @@
     </row>
     <row r="231" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE231" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="AF231">
         <v>5700</v>
@@ -5541,7 +5027,7 @@
     </row>
     <row r="232" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE232" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AF232">
         <v>5700</v>
@@ -5549,7 +5035,7 @@
     </row>
     <row r="233" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE233" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AF233">
         <v>5700</v>
@@ -5557,7 +5043,7 @@
     </row>
     <row r="234" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE234" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="AF234">
         <v>10600</v>
@@ -5565,7 +5051,7 @@
     </row>
     <row r="235" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE235" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AF235">
         <v>5700</v>
@@ -5573,7 +5059,7 @@
     </row>
     <row r="236" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE236" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="AF236">
         <v>10600</v>
@@ -5581,7 +5067,7 @@
     </row>
     <row r="237" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE237" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="AF237">
         <v>10600</v>
@@ -5589,7 +5075,7 @@
     </row>
     <row r="238" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE238" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AF238">
         <v>20000</v>
@@ -5597,7 +5083,7 @@
     </row>
     <row r="239" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE239" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AF239">
         <v>20000</v>
@@ -5605,7 +5091,7 @@
     </row>
     <row r="240" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE240" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AF240">
         <v>5700</v>
@@ -5613,7 +5099,7 @@
     </row>
     <row r="241" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE241" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AF241">
         <v>5700</v>
@@ -5621,7 +5107,7 @@
     </row>
     <row r="242" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE242" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AF242">
         <v>10600</v>
@@ -5629,7 +5115,7 @@
     </row>
     <row r="243" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE243" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AF243">
         <v>20000</v>
@@ -5637,7 +5123,7 @@
     </row>
     <row r="244" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE244" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF244">
         <v>5700</v>
@@ -5645,7 +5131,7 @@
     </row>
     <row r="245" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE245" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AF245">
         <v>5700</v>
@@ -5653,7 +5139,7 @@
     </row>
     <row r="246" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE246" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="AF246">
         <v>20000</v>
@@ -5661,7 +5147,7 @@
     </row>
     <row r="247" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE247" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AF247">
         <v>10600</v>
@@ -5669,7 +5155,7 @@
     </row>
     <row r="248" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE248" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AF248">
         <v>5700</v>
@@ -5677,7 +5163,7 @@
     </row>
     <row r="249" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE249" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AF249">
         <v>5700</v>
@@ -5685,7 +5171,7 @@
     </row>
     <row r="250" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE250" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="AF250">
         <v>5700</v>
@@ -5693,7 +5179,7 @@
     </row>
     <row r="251" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE251" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="AF251">
         <v>5700</v>
@@ -5701,7 +5187,7 @@
     </row>
     <row r="252" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE252" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AF252">
         <v>5700</v>
@@ -5709,7 +5195,7 @@
     </row>
     <row r="253" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE253" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AF253">
         <v>10600</v>
@@ -5717,7 +5203,7 @@
     </row>
     <row r="254" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE254" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="AF254">
         <v>5700</v>
@@ -5725,7 +5211,7 @@
     </row>
     <row r="255" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE255" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="AF255">
         <v>5700</v>
@@ -5733,7 +5219,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -5741,7 +5227,7 @@
     </row>
     <row r="257" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE257" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AF257">
         <v>5700</v>
@@ -5749,7 +5235,7 @@
     </row>
     <row r="258" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE258" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AF258">
         <v>5700</v>
@@ -5757,7 +5243,7 @@
     </row>
     <row r="259" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE259" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AF259">
         <v>20000</v>
@@ -5765,7 +5251,7 @@
     </row>
     <row r="260" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE260" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="AF260">
         <v>5700</v>
@@ -5773,7 +5259,7 @@
     </row>
     <row r="261" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE261" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AF261">
         <v>5700</v>
@@ -5781,7 +5267,7 @@
     </row>
     <row r="262" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE262" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AF262">
         <v>20000</v>
@@ -5789,7 +5275,7 @@
     </row>
     <row r="263" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE263" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AF263">
         <v>20000</v>
@@ -5797,7 +5283,7 @@
     </row>
     <row r="264" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE264" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="AF264">
         <v>10600</v>
@@ -5805,7 +5291,7 @@
     </row>
     <row r="265" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE265" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AF265">
         <v>20000</v>
@@ -5813,7 +5299,7 @@
     </row>
     <row r="266" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE266" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AF266">
         <v>5700</v>
@@ -5821,7 +5307,7 @@
     </row>
     <row r="267" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE267" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AF267">
         <v>20000</v>
@@ -5829,7 +5315,7 @@
     </row>
     <row r="268" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE268" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AF268">
         <v>10600</v>
@@ -5837,7 +5323,7 @@
     </row>
     <row r="269" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE269" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AF269">
         <v>5700</v>
@@ -5845,7 +5331,7 @@
     </row>
     <row r="270" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE270" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AF270">
         <v>10600</v>
@@ -5853,7 +5339,7 @@
     </row>
     <row r="271" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE271" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AF271">
         <v>5700</v>
@@ -5861,7 +5347,7 @@
     </row>
     <row r="272" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE272" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AF272">
         <v>20000</v>
@@ -5869,7 +5355,7 @@
     </row>
     <row r="273" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE273" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AF273">
         <v>5700</v>
@@ -5877,7 +5363,7 @@
     </row>
     <row r="274" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE274" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AF274">
         <v>10600</v>
@@ -5885,7 +5371,7 @@
     </row>
     <row r="275" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE275" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AF275">
         <v>10600</v>
@@ -5893,7 +5379,7 @@
     </row>
     <row r="276" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE276" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AF276">
         <v>10600</v>
@@ -5901,7 +5387,7 @@
     </row>
     <row r="277" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE277" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AF277">
         <v>5700</v>
@@ -5909,7 +5395,7 @@
     </row>
     <row r="278" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE278" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF278">
         <v>5700</v>
@@ -5917,7 +5403,7 @@
     </row>
     <row r="279" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE279" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AF279">
         <v>5700</v>
@@ -5925,7 +5411,7 @@
     </row>
     <row r="280" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE280" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AF280">
         <v>5700</v>
@@ -5933,7 +5419,7 @@
     </row>
     <row r="281" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE281" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AF281">
         <v>10600</v>
@@ -5941,7 +5427,7 @@
     </row>
     <row r="282" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE282" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AF282">
         <v>5700</v>
@@ -5949,7 +5435,7 @@
     </row>
     <row r="283" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE283" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AF283">
         <v>5700</v>
@@ -5957,7 +5443,7 @@
     </row>
     <row r="284" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE284" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF284">
         <v>5700</v>
@@ -5965,7 +5451,7 @@
     </row>
     <row r="285" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE285" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="AF285">
         <v>10600</v>
@@ -5973,7 +5459,7 @@
     </row>
     <row r="286" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE286" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AF286">
         <v>20000</v>
@@ -5981,7 +5467,7 @@
     </row>
     <row r="287" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE287" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AF287">
         <v>5700</v>
@@ -5989,7 +5475,7 @@
     </row>
     <row r="288" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE288" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="AF288">
         <v>20000</v>
@@ -5997,7 +5483,7 @@
     </row>
     <row r="289" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE289" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AF289">
         <v>10600</v>
@@ -6005,7 +5491,7 @@
     </row>
     <row r="290" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE290" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="AF290">
         <v>20000</v>
@@ -6013,7 +5499,7 @@
     </row>
     <row r="291" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE291" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AF291">
         <v>5700</v>
@@ -6021,7 +5507,7 @@
     </row>
     <row r="292" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE292" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AF292">
         <v>5700</v>
@@ -6029,7 +5515,7 @@
     </row>
     <row r="293" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE293" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AF293">
         <v>5700</v>
@@ -6037,7 +5523,7 @@
     </row>
     <row r="294" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE294" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AF294">
         <v>10600</v>
@@ -6045,7 +5531,7 @@
     </row>
     <row r="295" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE295" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AF295">
         <v>20000</v>
@@ -6053,7 +5539,7 @@
     </row>
     <row r="296" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE296" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AF296">
         <v>5700</v>
@@ -6061,7 +5547,7 @@
     </row>
     <row r="297" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE297" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AF297">
         <v>5700</v>
@@ -6069,7 +5555,7 @@
     </row>
     <row r="298" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE298" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AF298">
         <v>5700</v>
@@ -6077,7 +5563,7 @@
     </row>
     <row r="299" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE299" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AF299">
         <v>10600</v>
@@ -6085,7 +5571,7 @@
     </row>
     <row r="300" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE300" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AF300">
         <v>5700</v>
@@ -6093,7 +5579,7 @@
     </row>
     <row r="301" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE301" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AF301">
         <v>20000</v>
@@ -6101,7 +5587,7 @@
     </row>
     <row r="302" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE302" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AF302">
         <v>20000</v>
@@ -6109,7 +5595,7 @@
     </row>
     <row r="303" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE303" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AF303">
         <v>5700</v>
@@ -6117,7 +5603,7 @@
     </row>
     <row r="304" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE304" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AF304">
         <v>5700</v>
@@ -6125,7 +5611,7 @@
     </row>
     <row r="305" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE305" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AF305">
         <v>10600</v>
@@ -6187,7 +5673,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="AE1" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AF1" s="2">
         <v>900</v>
@@ -6207,7 +5693,7 @@
         <f>VLOOKUP(B2,AE1:AF73,2,0)</f>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AF2" s="3">
         <v>900</v>
@@ -6234,7 +5720,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="AE3" s="6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AF3" s="6">
         <v>900</v>
@@ -6242,10 +5728,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D27)</f>
+        <f>SUM(D5:D40)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E27)</f>
+        <f>SUM(E5:E40)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -6275,61 +5761,61 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AF4" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="10">
-        <v>120</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="13">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
         <f>COUNTA(F5:AD5)</f>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
       <c r="AE5" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AF5">
         <v>900</v>
@@ -6340,10 +5826,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C6" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10">
         <f>COUNTA(F6:AD6)</f>
@@ -6383,7 +5869,7 @@
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AF6">
         <v>900</v>
@@ -6394,10 +5880,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <f>COUNTA(F7:AD7)</f>
@@ -6431,7 +5917,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AF7">
         <v>900</v>
@@ -6442,10 +5928,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D8" s="10">
         <f>COUNTA(F8:AD8)</f>
@@ -6479,7 +5965,7 @@
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AF8">
         <v>900</v>
@@ -6490,7 +5976,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10">
         <v>100</v>
@@ -6527,7 +6013,7 @@
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF9">
         <v>900</v>
@@ -6538,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10">
         <v>100</v>
@@ -6575,487 +6061,487 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="AF10">
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10">
         <v>100</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <f>COUNTA(F11:AD11)</f>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f>C11*D11</f>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
       <c r="AE11" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AF11">
         <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="13">
-        <v>100</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="10">
+        <v>65</v>
+      </c>
+      <c r="D12" s="10">
         <f>COUNTA(F12:AD12)</f>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <f>C12*D12</f>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AF12">
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="13">
-        <v>90</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="10">
+        <v>65</v>
+      </c>
+      <c r="D13" s="10">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
       <c r="AE13" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AF13">
         <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="13">
-        <v>80</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="10">
+        <v>65</v>
+      </c>
+      <c r="D14" s="10">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
       <c r="AE14" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AF14">
         <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="10">
         <v>65</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <f>COUNTA(F15:AD15)</f>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <f>C15*D15</f>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
       <c r="AE15" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF15">
         <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="13">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="A16" s="10">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="10">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10">
         <f>COUNTA(F16:AD16)</f>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
       <c r="AE16" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AF16">
         <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>6</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="13">
-        <v>60</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="10">
+        <v>65</v>
+      </c>
+      <c r="D17" s="10">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
       <c r="AE17" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AF17">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>6</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="13">
-        <v>60</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="10">
+        <v>40</v>
+      </c>
+      <c r="D18" s="10">
         <f>COUNTA(F18:AD18)</f>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
       <c r="AE18" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AF18">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="13">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="10">
+        <v>40</v>
+      </c>
+      <c r="D19" s="10">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
       <c r="AE19" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AF19">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="13">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="10">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
       <c r="AE20" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF20">
         <v>900</v>
@@ -7063,13 +6549,13 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C21" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10">
         <f>COUNTA(F21:AD21)</f>
@@ -7103,7 +6589,7 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AF21">
         <v>900</v>
@@ -7111,13 +6597,13 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C22" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10">
         <f>COUNTA(F22:AD22)</f>
@@ -7151,7 +6637,7 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AF22">
         <v>900</v>
@@ -7159,13 +6645,13 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C23" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D23" s="10">
         <f>COUNTA(F23:AD23)</f>
@@ -7199,285 +6685,725 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AF23">
         <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>7</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" s="10">
-        <v>30</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="A24" s="13">
+        <v>6</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C24" s="13">
+        <v>40</v>
+      </c>
+      <c r="D24" s="13">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="13">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
       <c r="AE24" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AF24">
         <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="A25" s="13">
+        <v>6</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="13">
         <v>30</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="13">
         <f>COUNTA(F25:AD25)</f>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="13">
         <f>C25*D25</f>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
       <c r="AE25" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AF25">
         <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>7</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" s="10">
-        <v>30</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="A26" s="13">
+        <v>6</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="13">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AF26">
         <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>7</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="10">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="A27" s="13">
+        <v>6</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22</v>
+      </c>
+      <c r="D27" s="13">
         <f>COUNTA(F27:AD27)</f>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="13">
         <f>C27*D27</f>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
       <c r="AE27" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AF27">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13">
+        <f>COUNTA(F28:AD28)</f>
+      </c>
+      <c r="E28" s="13">
+        <f>C28*D28</f>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
       <c r="AE28" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AF28">
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>6</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="13">
+        <v>22</v>
+      </c>
+      <c r="D29" s="13">
+        <f>COUNTA(F29:AD29)</f>
+      </c>
+      <c r="E29" s="13">
+        <f>C29*D29</f>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
       <c r="AE29" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AF29">
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="13">
+        <v>22</v>
+      </c>
+      <c r="D30" s="13">
+        <f>COUNTA(F30:AD30)</f>
+      </c>
+      <c r="E30" s="13">
+        <f>C30*D30</f>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
       <c r="AE30" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AF30">
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>6</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="13">
+        <v>22</v>
+      </c>
+      <c r="D31" s="13">
+        <f>COUNTA(F31:AD31)</f>
+      </c>
+      <c r="E31" s="13">
+        <f>C31*D31</f>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
       <c r="AE31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AF31">
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="13">
+        <v>22</v>
+      </c>
+      <c r="D32" s="13">
+        <f>COUNTA(F32:AD32)</f>
+      </c>
+      <c r="E32" s="13">
+        <f>C32*D32</f>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
       <c r="AE32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF32">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>6</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17</v>
+      </c>
+      <c r="D33" s="13">
+        <f>COUNTA(F33:AD33)</f>
+      </c>
+      <c r="E33" s="13">
+        <f>C33*D33</f>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
       <c r="AE33" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AF33">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="10">
+        <v>17</v>
+      </c>
+      <c r="D34" s="10">
+        <f>COUNTA(F34:AD34)</f>
+      </c>
+      <c r="E34" s="10">
+        <f>C34*D34</f>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
       <c r="AE34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF34">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>7</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="10">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <f>COUNTA(F35:AD35)</f>
+      </c>
+      <c r="E35" s="10">
+        <f>C35*D35</f>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
       <c r="AE35" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF35">
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" s="10">
+        <v>17</v>
+      </c>
+      <c r="D36" s="10">
+        <f>COUNTA(F36:AD36)</f>
+      </c>
+      <c r="E36" s="10">
+        <f>C36*D36</f>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
       <c r="AE36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF36">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>7</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="10">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10">
+        <f>COUNTA(F37:AD37)</f>
+      </c>
+      <c r="E37" s="10">
+        <f>C37*D37</f>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
       <c r="AE37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF37">
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>7</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" s="10">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10">
+        <f>COUNTA(F38:AD38)</f>
+      </c>
+      <c r="E38" s="10">
+        <f>C38*D38</f>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
       <c r="AE38" t="s">
         <v>415</v>
       </c>
@@ -7485,17 +7411,97 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>7</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10">
+        <f>COUNTA(F39:AD39)</f>
+      </c>
+      <c r="E39" s="10">
+        <f>C39*D39</f>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
       <c r="AE39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF39">
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>7</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C40" s="10">
+        <v>10</v>
+      </c>
+      <c r="D40" s="10">
+        <f>COUNTA(F40:AD40)</f>
+      </c>
+      <c r="E40" s="10">
+        <f>C40*D40</f>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
       <c r="AE40" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF40">
         <v>1350</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="41" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE41" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF41">
         <v>900</v>
@@ -7511,7 +7517,7 @@
     </row>
     <row r="42" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE42" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF42">
         <v>900</v>
@@ -7519,7 +7525,7 @@
     </row>
     <row r="43" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE43" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF43">
         <v>900</v>
@@ -7527,7 +7533,7 @@
     </row>
     <row r="44" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE44" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF44">
         <v>900</v>
@@ -7535,7 +7541,7 @@
     </row>
     <row r="45" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE45" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF45">
         <v>900</v>
@@ -7543,7 +7549,7 @@
     </row>
     <row r="46" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE46" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF46">
         <v>1350</v>
@@ -7551,7 +7557,7 @@
     </row>
     <row r="47" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE47" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF47">
         <v>900</v>
@@ -7559,7 +7565,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF48">
         <v>900</v>
@@ -7567,7 +7573,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF49">
         <v>900</v>
@@ -7575,7 +7581,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF50">
         <v>900</v>
@@ -7583,7 +7589,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF51">
         <v>2900</v>
@@ -7591,7 +7597,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF52">
         <v>900</v>
@@ -7599,7 +7605,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF53">
         <v>900</v>
@@ -7607,7 +7613,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF54">
         <v>900</v>
@@ -7615,7 +7621,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF55">
         <v>900</v>
@@ -7623,7 +7629,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF56">
         <v>900</v>
@@ -7631,7 +7637,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF57">
         <v>900</v>
@@ -7639,7 +7645,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF58">
         <v>1350</v>
@@ -7647,7 +7653,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF59">
         <v>1350</v>
@@ -7655,7 +7661,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF60">
         <v>900</v>
@@ -7663,7 +7669,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF61">
         <v>900</v>
@@ -7671,7 +7677,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF62">
         <v>900</v>
@@ -7679,7 +7685,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF63">
         <v>900</v>
@@ -7687,7 +7693,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF64">
         <v>900</v>
@@ -7695,7 +7701,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF65">
         <v>900</v>
@@ -7703,7 +7709,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF66">
         <v>900</v>
@@ -7711,7 +7717,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF67">
         <v>900</v>
@@ -7719,7 +7725,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF68">
         <v>900</v>
@@ -7727,7 +7733,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF69">
         <v>900</v>
@@ -7735,7 +7741,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF70">
         <v>900</v>
@@ -7743,7 +7749,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF71">
         <v>900</v>
@@ -7751,7 +7757,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF72">
         <v>900</v>
@@ -7759,7 +7765,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AF73">
         <v>900</v>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -77,31 +77,31 @@
     <t>Alvarado</t>
   </si>
   <si>
+    <t>Santa Ana (i)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Amalienborg</t>
+  </si>
+  <si>
     <t>Santísima Trinidad</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Amalienborg</t>
+    <t>Ambergrease Cay</t>
   </si>
   <si>
     <t>Victory</t>
   </si>
   <si>
-    <t>Ambergrease Cay</t>
+    <t>Apalachicola</t>
   </si>
   <si>
     <t>Victory 1765 (i)</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>Santa Ana (i)</t>
   </si>
   <si>
     <t>Aransas</t>
@@ -2209,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D9" s="10">
         <f>COUNTA(F9:AD9)</f>

--- a/lib/gen-generic/port-battle.xlsx
+++ b/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="453">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -251,69 +251,129 @@
     <t>Black River</t>
   </si>
   <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>L’Hermione (i)</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Hercules (i)</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Pandora (i)</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Le Requin (i)</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
     <t>Canalete</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
     <t>Caño Araguabisi</t>
   </si>
   <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
     <t>Caño Araguao</t>
   </si>
   <si>
+    <t>Niagara</t>
+  </si>
+  <si>
     <t>Caño Macareo</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
     <t>Cap-Français</t>
   </si>
   <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Caracas</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
     <t>Cariaco</t>
   </si>
   <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Carlisle</t>
   </si>
   <si>
@@ -1103,172 +1163,112 @@
     <t>Blondel Cay</t>
   </si>
   <si>
-    <t>Frigate</t>
-  </si>
-  <si>
     <t>Bone Cay</t>
   </si>
   <si>
-    <t>L’Hermione (i)</t>
-  </si>
-  <si>
     <t>Brewers</t>
   </si>
   <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
     <t>Bugle Cay</t>
   </si>
   <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
     <t>Carahatas</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
     <t>Cayo Largo</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Cayo Vacas</t>
   </si>
   <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
     <t>Chinchorro</t>
   </si>
   <si>
-    <t>Hercules (i)</t>
-  </si>
-  <si>
     <t>Chiriquí</t>
   </si>
   <si>
-    <t>La Renommée</t>
+    <t>Brig</t>
   </si>
   <si>
     <t>Cochinos</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
+    <t>Cutter</t>
   </si>
   <si>
     <t>Cocodrilo</t>
   </si>
   <si>
-    <t>Pandora (i)</t>
+    <t>Lynx</t>
   </si>
   <si>
     <t>Croata</t>
   </si>
   <si>
-    <t>Surprise</t>
+    <t>Pickle</t>
   </si>
   <si>
     <t>Crown Haven</t>
   </si>
   <si>
-    <t>Le Requin (i)</t>
+    <t>Privateer</t>
   </si>
   <si>
     <t>Daguilla</t>
   </si>
   <si>
+    <t>Yacht (i)</t>
+  </si>
+  <si>
     <t>Deadman’s Cay</t>
   </si>
   <si>
-    <t>Mercury</t>
+    <t>Yacht Silver (i)</t>
   </si>
   <si>
     <t>Frozen Cay</t>
   </si>
   <si>
-    <t>Navy Brig</t>
+    <t>GunBoat</t>
   </si>
   <si>
     <t>George’s Town</t>
   </si>
   <si>
-    <t>Niagara</t>
-  </si>
-  <si>
     <t>Governor’s Harbour</t>
   </si>
   <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
     <t>Green Cay</t>
   </si>
   <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
     <t>Guacata</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
     <t>Harbour Island</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Haulover</t>
   </si>
   <si>
-    <t>Brig</t>
-  </si>
-  <si>
     <t>Hitten Hatcha</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
     <t>Islet</t>
   </si>
   <si>
-    <t>Lynx</t>
-  </si>
-  <si>
     <t>Kemp’s Bay</t>
   </si>
   <si>
-    <t>Pickle</t>
-  </si>
-  <si>
     <t>La Anguila</t>
   </si>
   <si>
-    <t>Privateer</t>
-  </si>
-  <si>
     <t>La Bahía</t>
   </si>
   <si>
-    <t>Yacht (i)</t>
-  </si>
-  <si>
     <t>La Bermeja</t>
   </si>
   <si>
-    <t>Yacht Silver (i)</t>
-  </si>
-  <si>
     <t>La Desconocida</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
   </si>
   <si>
     <t>La Guanaja</t>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D34)</f>
+        <f>SUM(D5:D54)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E34)</f>
+        <f>SUM(E5:E54)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -3402,46 +3402,46 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>6</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="10">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="13">
-        <v>30</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C34" s="10">
+        <v>65</v>
+      </c>
+      <c r="D34" s="10">
         <f>COUNTA(F34:AD34)</f>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="10">
         <f>C34*D34</f>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
       <c r="AE34" t="s">
         <v>80</v>
       </c>
@@ -3449,161 +3449,961 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="35" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>5</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="10">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10">
+        <f>COUNTA(F35:AD35)</f>
+      </c>
+      <c r="E35" s="10">
+        <f>C35*D35</f>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
       <c r="AE35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF35">
         <v>5700</v>
       </c>
     </row>
-    <row r="36" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>5</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="10">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10">
+        <f>COUNTA(F36:AD36)</f>
+      </c>
+      <c r="E36" s="10">
+        <f>C36*D36</f>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
       <c r="AE36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF36">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="10">
+        <v>65</v>
+      </c>
+      <c r="D37" s="10">
+        <f>COUNTA(F37:AD37)</f>
+      </c>
+      <c r="E37" s="10">
+        <f>C37*D37</f>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
       <c r="AE37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF37">
         <v>20000</v>
       </c>
     </row>
-    <row r="38" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="10">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10">
+        <f>COUNTA(F38:AD38)</f>
+      </c>
+      <c r="E38" s="10">
+        <f>C38*D38</f>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
       <c r="AE38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AF38">
         <v>10600</v>
       </c>
     </row>
-    <row r="39" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>5</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="10">
+        <v>65</v>
+      </c>
+      <c r="D39" s="10">
+        <f>COUNTA(F39:AD39)</f>
+      </c>
+      <c r="E39" s="10">
+        <f>C39*D39</f>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
       <c r="AE39" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF39">
         <v>5700</v>
       </c>
     </row>
-    <row r="40" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="10">
+        <v>40</v>
+      </c>
+      <c r="D40" s="10">
+        <f>COUNTA(F40:AD40)</f>
+      </c>
+      <c r="E40" s="10">
+        <f>C40*D40</f>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
       <c r="AE40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AF40">
         <v>5700</v>
       </c>
     </row>
-    <row r="41" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="10">
+        <v>40</v>
+      </c>
+      <c r="D41" s="10">
+        <f>COUNTA(F41:AD41)</f>
+      </c>
+      <c r="E41" s="10">
+        <f>C41*D41</f>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
       <c r="AE41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AF41">
         <v>5700</v>
       </c>
     </row>
-    <row r="42" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="10">
+        <v>40</v>
+      </c>
+      <c r="D42" s="10">
+        <f>COUNTA(F42:AD42)</f>
+      </c>
+      <c r="E42" s="10">
+        <f>C42*D42</f>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
       <c r="AE42" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF42">
         <v>5700</v>
       </c>
     </row>
-    <row r="43" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="10">
+        <v>40</v>
+      </c>
+      <c r="D43" s="10">
+        <f>COUNTA(F43:AD43)</f>
+      </c>
+      <c r="E43" s="10">
+        <f>C43*D43</f>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AF43">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="10">
+        <v>40</v>
+      </c>
+      <c r="D44" s="10">
+        <f>COUNTA(F44:AD44)</f>
+      </c>
+      <c r="E44" s="10">
+        <f>C44*D44</f>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
       <c r="AE44" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF44">
         <v>5700</v>
       </c>
     </row>
-    <row r="45" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="10">
+        <v>40</v>
+      </c>
+      <c r="D45" s="10">
+        <f>COUNTA(F45:AD45)</f>
+      </c>
+      <c r="E45" s="10">
+        <f>C45*D45</f>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
       <c r="AE45" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AF45">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>6</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="13">
+        <v>40</v>
+      </c>
+      <c r="D46" s="13">
+        <f>COUNTA(F46:AD46)</f>
+      </c>
+      <c r="E46" s="13">
+        <f>C46*D46</f>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
       <c r="AE46" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AF46">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>6</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13">
+        <v>30</v>
+      </c>
+      <c r="D47" s="13">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="13">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AF47">
         <v>5700</v>
       </c>
     </row>
-    <row r="48" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>6</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="13">
+        <v>22</v>
+      </c>
+      <c r="D48" s="13">
+        <f>COUNTA(F48:AD48)</f>
+      </c>
+      <c r="E48" s="13">
+        <f>C48*D48</f>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
       <c r="AE48" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AF48">
         <v>5700</v>
       </c>
     </row>
-    <row r="49" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>6</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="13">
+        <v>22</v>
+      </c>
+      <c r="D49" s="13">
+        <f>COUNTA(F49:AD49)</f>
+      </c>
+      <c r="E49" s="13">
+        <f>C49*D49</f>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
       <c r="AE49" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF49">
         <v>5700</v>
       </c>
     </row>
-    <row r="50" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>6</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="13">
+        <v>22</v>
+      </c>
+      <c r="D50" s="13">
+        <f>COUNTA(F50:AD50)</f>
+      </c>
+      <c r="E50" s="13">
+        <f>C50*D50</f>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
       <c r="AE50" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AF50">
         <v>5700</v>
       </c>
     </row>
-    <row r="51" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>6</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="13">
+        <v>22</v>
+      </c>
+      <c r="D51" s="13">
+        <f>COUNTA(F51:AD51)</f>
+      </c>
+      <c r="E51" s="13">
+        <f>C51*D51</f>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
       <c r="AE51" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AF51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>6</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="13">
+        <v>22</v>
+      </c>
+      <c r="D52" s="13">
+        <f>COUNTA(F52:AD52)</f>
+      </c>
+      <c r="E52" s="13">
+        <f>C52*D52</f>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
       <c r="AE52" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AF52">
         <v>20000</v>
       </c>
     </row>
-    <row r="53" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>6</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="13">
+        <v>22</v>
+      </c>
+      <c r="D53" s="13">
+        <f>COUNTA(F53:AD53)</f>
+      </c>
+      <c r="E53" s="13">
+        <f>C53*D53</f>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
       <c r="AE53" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AF53">
         <v>10600</v>
       </c>
     </row>
-    <row r="54" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>6</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="13">
+        <v>22</v>
+      </c>
+      <c r="D54" s="13">
+        <f>COUNTA(F54:AD54)</f>
+      </c>
+      <c r="E54" s="13">
+        <f>C54*D54</f>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
       <c r="AE54" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF54">
         <v>10600</v>
@@ -3611,7 +4411,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AF55">
         <v>5700</v>
@@ -3619,7 +4419,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="AF56">
         <v>20000</v>
@@ -3627,7 +4427,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="AF57">
         <v>5700</v>
@@ -3635,7 +4435,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="AF58">
         <v>5700</v>
@@ -3643,7 +4443,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="AF59">
         <v>10600</v>
@@ -3651,7 +4451,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AF60">
         <v>5700</v>
@@ -3659,7 +4459,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AF61">
         <v>5700</v>
@@ -3667,7 +4467,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF62">
         <v>5700</v>
@@ -3675,7 +4475,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AF63">
         <v>5700</v>
@@ -3683,7 +4483,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF64">
         <v>5700</v>
@@ -3691,7 +4491,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AF65">
         <v>20000</v>
@@ -3699,7 +4499,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AF66">
         <v>5700</v>
@@ -3707,7 +4507,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AF67">
         <v>10600</v>
@@ -3715,7 +4515,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AF68">
         <v>20000</v>
@@ -3723,7 +4523,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AF69">
         <v>20000</v>
@@ -3731,7 +4531,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="AF70">
         <v>10600</v>
@@ -3739,7 +4539,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AF71">
         <v>5700</v>
@@ -3747,7 +4547,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="AF72">
         <v>5700</v>
@@ -3755,7 +4555,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="AF73">
         <v>5700</v>
@@ -3763,7 +4563,7 @@
     </row>
     <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF74">
         <v>5700</v>
@@ -3771,7 +4571,7 @@
     </row>
     <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="AF75">
         <v>5700</v>
@@ -3779,7 +4579,7 @@
     </row>
     <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AF76">
         <v>5700</v>
@@ -3787,7 +4587,7 @@
     </row>
     <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AF77">
         <v>5700</v>
@@ -3795,7 +4595,7 @@
     </row>
     <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AF78">
         <v>5700</v>
@@ -3803,7 +4603,7 @@
     </row>
     <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AF79">
         <v>20000</v>
@@ -3811,7 +4611,7 @@
     </row>
     <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="AF80">
         <v>5700</v>
@@ -3819,7 +4619,7 @@
     </row>
     <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AF81">
         <v>5700</v>
@@ -3827,7 +4627,7 @@
     </row>
     <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AF82">
         <v>20000</v>
@@ -3835,7 +4635,7 @@
     </row>
     <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AF83">
         <v>5700</v>
@@ -3843,7 +4643,7 @@
     </row>
     <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF84">
         <v>10600</v>
@@ -3851,7 +4651,7 @@
     </row>
     <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="AF85">
         <v>5700</v>
@@ -3859,7 +4659,7 @@
     </row>
     <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AF86">
         <v>5700</v>
@@ -3867,7 +4667,7 @@
     </row>
     <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AF87">
         <v>5700</v>
@@ -3875,7 +4675,7 @@
     </row>
     <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AF88">
         <v>5700</v>
@@ -3883,7 +4683,7 @@
     </row>
     <row r="89" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE89" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AF89">
         <v>5700</v>
@@ -3891,7 +4691,7 @@
     </row>
     <row r="90" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE90" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AF90">
         <v>5700</v>
@@ -3899,7 +4699,7 @@
     </row>
     <row r="91" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE91" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AF91">
         <v>5700</v>
@@ -3907,7 +4707,7 @@
     </row>
     <row r="92" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE92" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AF92">
         <v>10600</v>
@@ -3915,7 +4715,7 @@
     </row>
     <row r="93" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE93" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AF93">
         <v>5700</v>
@@ -3923,7 +4723,7 @@
     </row>
     <row r="94" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE94" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AF94">
         <v>5700</v>
@@ -3931,7 +4731,7 @@
     </row>
     <row r="95" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE95" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AF95">
         <v>5700</v>
@@ -3939,7 +4739,7 @@
     </row>
     <row r="96" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE96" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AF96">
         <v>5700</v>
@@ -3947,7 +4747,7 @@
     </row>
     <row r="97" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE97" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AF97">
         <v>5700</v>
@@ -3955,7 +4755,7 @@
     </row>
     <row r="98" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE98" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF98">
         <v>10600</v>
@@ -3963,7 +4763,7 @@
     </row>
     <row r="99" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE99" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AF99">
         <v>20000</v>
@@ -3971,7 +4771,7 @@
     </row>
     <row r="100" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE100" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AF100">
         <v>10600</v>
@@ -3979,7 +4779,7 @@
     </row>
     <row r="101" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE101" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AF101">
         <v>5700</v>
@@ -3987,7 +4787,7 @@
     </row>
     <row r="102" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE102" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AF102">
         <v>5700</v>
@@ -3995,7 +4795,7 @@
     </row>
     <row r="103" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE103" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AF103">
         <v>5700</v>
@@ -4003,7 +4803,7 @@
     </row>
     <row r="104" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE104" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF104">
         <v>20000</v>
@@ -4011,7 +4811,7 @@
     </row>
     <row r="105" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE105" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AF105">
         <v>5700</v>
@@ -4019,7 +4819,7 @@
     </row>
     <row r="106" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE106" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF106">
         <v>5700</v>
@@ -4027,7 +4827,7 @@
     </row>
     <row r="107" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE107" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="AF107">
         <v>10600</v>
@@ -4035,7 +4835,7 @@
     </row>
     <row r="108" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE108" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="AF108">
         <v>10600</v>
@@ -4043,7 +4843,7 @@
     </row>
     <row r="109" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE109" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="AF109">
         <v>5700</v>
@@ -4051,7 +4851,7 @@
     </row>
     <row r="110" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE110" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="AF110">
         <v>5700</v>
@@ -4059,7 +4859,7 @@
     </row>
     <row r="111" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE111" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="AF111">
         <v>5700</v>
@@ -4067,7 +4867,7 @@
     </row>
     <row r="112" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE112" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="AF112">
         <v>5700</v>
@@ -4075,7 +4875,7 @@
     </row>
     <row r="113" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE113" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="AF113">
         <v>10600</v>
@@ -4083,7 +4883,7 @@
     </row>
     <row r="114" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE114" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF114">
         <v>5700</v>
@@ -4091,7 +4891,7 @@
     </row>
     <row r="115" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE115" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AF115">
         <v>5700</v>
@@ -4099,7 +4899,7 @@
     </row>
     <row r="116" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE116" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AF116">
         <v>5700</v>
@@ -4107,7 +4907,7 @@
     </row>
     <row r="117" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE117" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AF117">
         <v>10600</v>
@@ -4115,7 +4915,7 @@
     </row>
     <row r="118" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE118" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AF118">
         <v>20000</v>
@@ -4123,7 +4923,7 @@
     </row>
     <row r="119" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE119" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AF119">
         <v>5700</v>
@@ -4131,7 +4931,7 @@
     </row>
     <row r="120" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE120" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AF120">
         <v>10600</v>
@@ -4139,7 +4939,7 @@
     </row>
     <row r="121" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE121" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AF121">
         <v>5700</v>
@@ -4147,7 +4947,7 @@
     </row>
     <row r="122" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE122" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AF122">
         <v>10600</v>
@@ -4155,7 +4955,7 @@
     </row>
     <row r="123" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE123" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AF123">
         <v>10600</v>
@@ -4163,7 +4963,7 @@
     </row>
     <row r="124" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE124" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF124">
         <v>5700</v>
@@ -4171,7 +4971,7 @@
     </row>
     <row r="125" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE125" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="AF125">
         <v>10600</v>
@@ -4179,7 +4979,7 @@
     </row>
     <row r="126" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE126" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AF126">
         <v>5700</v>
@@ -4187,7 +4987,7 @@
     </row>
     <row r="127" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE127" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="AF127">
         <v>5700</v>
@@ -4195,7 +4995,7 @@
     </row>
     <row r="128" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE128" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="AF128">
         <v>5700</v>
@@ -4203,7 +5003,7 @@
     </row>
     <row r="129" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE129" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AF129">
         <v>20000</v>
@@ -4211,7 +5011,7 @@
     </row>
     <row r="130" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE130" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="AF130">
         <v>10600</v>
@@ -4219,7 +5019,7 @@
     </row>
     <row r="131" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE131" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="AF131">
         <v>5700</v>
@@ -4227,7 +5027,7 @@
     </row>
     <row r="132" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE132" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AF132">
         <v>5700</v>
@@ -4235,7 +5035,7 @@
     </row>
     <row r="133" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE133" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AF133">
         <v>20000</v>
@@ -4243,7 +5043,7 @@
     </row>
     <row r="134" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE134" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AF134">
         <v>5700</v>
@@ -4251,7 +5051,7 @@
     </row>
     <row r="135" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE135" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AF135">
         <v>5700</v>
@@ -4259,7 +5059,7 @@
     </row>
     <row r="136" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE136" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AF136">
         <v>5700</v>
@@ -4267,7 +5067,7 @@
     </row>
     <row r="137" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE137" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AF137">
         <v>5700</v>
@@ -4275,7 +5075,7 @@
     </row>
     <row r="138" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE138" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AF138">
         <v>5700</v>
@@ -4283,7 +5083,7 @@
     </row>
     <row r="139" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE139" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AF139">
         <v>5700</v>
@@ -4291,7 +5091,7 @@
     </row>
     <row r="140" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE140" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AF140">
         <v>10600</v>
@@ -4299,7 +5099,7 @@
     </row>
     <row r="141" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE141" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AF141">
         <v>5700</v>
@@ -4307,7 +5107,7 @@
     </row>
     <row r="142" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE142" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AF142">
         <v>5700</v>
@@ -4315,7 +5115,7 @@
     </row>
     <row r="143" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE143" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AF143">
         <v>5700</v>
@@ -4323,7 +5123,7 @@
     </row>
     <row r="144" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE144" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AF144">
         <v>5700</v>
@@ -4331,7 +5131,7 @@
     </row>
     <row r="145" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE145" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AF145">
         <v>10600</v>
@@ -4339,7 +5139,7 @@
     </row>
     <row r="146" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE146" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AF146">
         <v>20000</v>
@@ -4347,7 +5147,7 @@
     </row>
     <row r="147" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE147" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AF147">
         <v>10600</v>
@@ -4355,7 +5155,7 @@
     </row>
     <row r="148" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE148" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AF148">
         <v>5700</v>
@@ -4363,7 +5163,7 @@
     </row>
     <row r="149" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE149" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AF149">
         <v>5700</v>
@@ -4371,7 +5171,7 @@
     </row>
     <row r="150" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE150" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AF150">
         <v>5700</v>
@@ -4379,7 +5179,7 @@
     </row>
     <row r="151" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE151" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AF151">
         <v>5700</v>
@@ -4387,7 +5187,7 @@
     </row>
     <row r="152" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE152" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AF152">
         <v>10600</v>
@@ -4395,7 +5195,7 @@
     </row>
     <row r="153" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE153" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AF153">
         <v>5700</v>
@@ -4403,7 +5203,7 @@
     </row>
     <row r="154" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE154" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF154">
         <v>5700</v>
@@ -4411,7 +5211,7 @@
     </row>
     <row r="155" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE155" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF155">
         <v>5700</v>
@@ -4419,7 +5219,7 @@
     </row>
     <row r="156" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE156" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AF156">
         <v>10600</v>
@@ -4427,7 +5227,7 @@
     </row>
     <row r="157" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE157" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AF157">
         <v>5700</v>
@@ -4435,7 +5235,7 @@
     </row>
     <row r="158" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE158" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AF158">
         <v>20000</v>
@@ -4443,7 +5243,7 @@
     </row>
     <row r="159" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE159" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AF159">
         <v>5700</v>
@@ -4451,7 +5251,7 @@
     </row>
     <row r="160" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE160" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AF160">
         <v>10600</v>
@@ -4459,7 +5259,7 @@
     </row>
     <row r="161" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE161" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AF161">
         <v>5700</v>
@@ -4467,7 +5267,7 @@
     </row>
     <row r="162" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE162" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AF162">
         <v>20000</v>
@@ -4475,7 +5275,7 @@
     </row>
     <row r="163" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE163" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AF163">
         <v>10600</v>
@@ -4483,7 +5283,7 @@
     </row>
     <row r="164" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE164" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF164">
         <v>5700</v>
@@ -4491,7 +5291,7 @@
     </row>
     <row r="165" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE165" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AF165">
         <v>5700</v>
@@ -4499,7 +5299,7 @@
     </row>
     <row r="166" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE166" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AF166">
         <v>10600</v>
@@ -4507,7 +5307,7 @@
     </row>
     <row r="167" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE167" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AF167">
         <v>10600</v>
@@ -4515,7 +5315,7 @@
     </row>
     <row r="168" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE168" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AF168">
         <v>20000</v>
@@ -4523,7 +5323,7 @@
     </row>
     <row r="169" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE169" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AF169">
         <v>5700</v>
@@ -4531,7 +5331,7 @@
     </row>
     <row r="170" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE170" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF170">
         <v>5700</v>
@@ -4539,7 +5339,7 @@
     </row>
     <row r="171" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE171" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AF171">
         <v>5700</v>
@@ -4547,7 +5347,7 @@
     </row>
     <row r="172" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE172" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AF172">
         <v>5700</v>
@@ -4555,7 +5355,7 @@
     </row>
     <row r="173" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE173" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AF173">
         <v>5700</v>
@@ -4563,7 +5363,7 @@
     </row>
     <row r="174" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE174" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AF174">
         <v>5700</v>
@@ -4571,7 +5371,7 @@
     </row>
     <row r="175" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE175" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AF175">
         <v>5700</v>
@@ -4579,7 +5379,7 @@
     </row>
     <row r="176" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE176" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AF176">
         <v>5700</v>
@@ -4587,7 +5387,7 @@
     </row>
     <row r="177" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE177" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AF177">
         <v>20000</v>
@@ -4595,7 +5395,7 @@
     </row>
     <row r="178" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE178" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AF178">
         <v>20000</v>
@@ -4603,7 +5403,7 @@
     </row>
     <row r="179" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE179" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="AF179">
         <v>20000</v>
@@ -4611,7 +5411,7 @@
     </row>
     <row r="180" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE180" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AF180">
         <v>5700</v>
@@ -4619,7 +5419,7 @@
     </row>
     <row r="181" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE181" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AF181">
         <v>5700</v>
@@ -4627,7 +5427,7 @@
     </row>
     <row r="182" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE182" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AF182">
         <v>10600</v>
@@ -4635,7 +5435,7 @@
     </row>
     <row r="183" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE183" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AF183">
         <v>20000</v>
@@ -4643,7 +5443,7 @@
     </row>
     <row r="184" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE184" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF184">
         <v>10600</v>
@@ -4651,7 +5451,7 @@
     </row>
     <row r="185" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE185" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AF185">
         <v>5700</v>
@@ -4659,7 +5459,7 @@
     </row>
     <row r="186" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE186" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AF186">
         <v>5700</v>
@@ -4667,7 +5467,7 @@
     </row>
     <row r="187" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE187" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AF187">
         <v>5700</v>
@@ -4675,7 +5475,7 @@
     </row>
     <row r="188" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE188" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AF188">
         <v>10600</v>
@@ -4683,7 +5483,7 @@
     </row>
     <row r="189" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE189" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF189">
         <v>5700</v>
@@ -4691,7 +5491,7 @@
     </row>
     <row r="190" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE190" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AF190">
         <v>10600</v>
@@ -4699,7 +5499,7 @@
     </row>
     <row r="191" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE191" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AF191">
         <v>10600</v>
@@ -4707,7 +5507,7 @@
     </row>
     <row r="192" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE192" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AF192">
         <v>5700</v>
@@ -4715,7 +5515,7 @@
     </row>
     <row r="193" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE193" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AF193">
         <v>5700</v>
@@ -4723,7 +5523,7 @@
     </row>
     <row r="194" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE194" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AF194">
         <v>5700</v>
@@ -4731,7 +5531,7 @@
     </row>
     <row r="195" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE195" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AF195">
         <v>5700</v>
@@ -4739,7 +5539,7 @@
     </row>
     <row r="196" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE196" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AF196">
         <v>5700</v>
@@ -4747,7 +5547,7 @@
     </row>
     <row r="197" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE197" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AF197">
         <v>5700</v>
@@ -4755,7 +5555,7 @@
     </row>
     <row r="198" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE198" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AF198">
         <v>10600</v>
@@ -4763,7 +5563,7 @@
     </row>
     <row r="199" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE199" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AF199">
         <v>10600</v>
@@ -4771,7 +5571,7 @@
     </row>
     <row r="200" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE200" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AF200">
         <v>10600</v>
@@ -4779,7 +5579,7 @@
     </row>
     <row r="201" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE201" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AF201">
         <v>10600</v>
@@ -4787,7 +5587,7 @@
     </row>
     <row r="202" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE202" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AF202">
         <v>20000</v>
@@ -4795,7 +5595,7 @@
     </row>
     <row r="203" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE203" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AF203">
         <v>10600</v>
@@ -4803,7 +5603,7 @@
     </row>
     <row r="204" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE204" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AF204">
         <v>10600</v>
@@ -4811,7 +5611,7 @@
     </row>
     <row r="205" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE205" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AF205">
         <v>5700</v>
@@ -4819,7 +5619,7 @@
     </row>
     <row r="206" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE206" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AF206">
         <v>20000</v>
@@ -4827,7 +5627,7 @@
     </row>
     <row r="207" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE207" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AF207">
         <v>5700</v>
@@ -4835,7 +5635,7 @@
     </row>
     <row r="208" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE208" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AF208">
         <v>10600</v>
@@ -4843,7 +5643,7 @@
     </row>
     <row r="209" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE209" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AF209">
         <v>20000</v>
@@ -4851,7 +5651,7 @@
     </row>
     <row r="210" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE210" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AF210">
         <v>10600</v>
@@ -4859,7 +5659,7 @@
     </row>
     <row r="211" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE211" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AF211">
         <v>5700</v>
@@ -4867,7 +5667,7 @@
     </row>
     <row r="212" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE212" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AF212">
         <v>5700</v>
@@ -4875,7 +5675,7 @@
     </row>
     <row r="213" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE213" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AF213">
         <v>20000</v>
@@ -4883,7 +5683,7 @@
     </row>
     <row r="214" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE214" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AF214">
         <v>5700</v>
@@ -4891,7 +5691,7 @@
     </row>
     <row r="215" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE215" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AF215">
         <v>20000</v>
@@ -4899,7 +5699,7 @@
     </row>
     <row r="216" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE216" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AF216">
         <v>5700</v>
@@ -4907,7 +5707,7 @@
     </row>
     <row r="217" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE217" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AF217">
         <v>10600</v>
@@ -4915,7 +5715,7 @@
     </row>
     <row r="218" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE218" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AF218">
         <v>20000</v>
@@ -4923,7 +5723,7 @@
     </row>
     <row r="219" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE219" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AF219">
         <v>5700</v>
@@ -4931,7 +5731,7 @@
     </row>
     <row r="220" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE220" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AF220">
         <v>5700</v>
@@ -4939,7 +5739,7 @@
     </row>
     <row r="221" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE221" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AF221">
         <v>10600</v>
@@ -4947,7 +5747,7 @@
     </row>
     <row r="222" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE222" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AF222">
         <v>5700</v>
@@ -4955,7 +5755,7 @@
     </row>
     <row r="223" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE223" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AF223">
         <v>10600</v>
@@ -4963,7 +5763,7 @@
     </row>
     <row r="224" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE224" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AF224">
         <v>10600</v>
@@ -4971,7 +5771,7 @@
     </row>
     <row r="225" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE225" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="AF225">
         <v>5700</v>
@@ -4979,7 +5779,7 @@
     </row>
     <row r="226" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE226" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AF226">
         <v>5700</v>
@@ -4987,7 +5787,7 @@
     </row>
     <row r="227" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE227" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="AF227">
         <v>20000</v>
@@ -4995,7 +5795,7 @@
     </row>
     <row r="228" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE228" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="AF228">
         <v>10600</v>
@@ -5003,7 +5803,7 @@
     </row>
     <row r="229" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE229" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="AF229">
         <v>20000</v>
@@ -5011,7 +5811,7 @@
     </row>
     <row r="230" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE230" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="AF230">
         <v>20000</v>
@@ -5019,7 +5819,7 @@
     </row>
     <row r="231" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE231" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AF231">
         <v>5700</v>
@@ -5027,7 +5827,7 @@
     </row>
     <row r="232" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE232" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AF232">
         <v>5700</v>
@@ -5035,7 +5835,7 @@
     </row>
     <row r="233" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE233" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AF233">
         <v>5700</v>
@@ -5043,7 +5843,7 @@
     </row>
     <row r="234" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE234" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AF234">
         <v>10600</v>
@@ -5051,7 +5851,7 @@
     </row>
     <row r="235" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE235" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AF235">
         <v>5700</v>
@@ -5059,7 +5859,7 @@
     </row>
     <row r="236" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE236" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="AF236">
         <v>10600</v>
@@ -5067,7 +5867,7 @@
     </row>
     <row r="237" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE237" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="AF237">
         <v>10600</v>
@@ -5075,7 +5875,7 @@
     </row>
     <row r="238" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE238" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="AF238">
         <v>20000</v>
@@ -5083,7 +5883,7 @@
     </row>
     <row r="239" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE239" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AF239">
         <v>20000</v>
@@ -5091,7 +5891,7 @@
     </row>
     <row r="240" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE240" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="AF240">
         <v>5700</v>
@@ -5099,7 +5899,7 @@
     </row>
     <row r="241" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE241" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AF241">
         <v>5700</v>
@@ -5107,7 +5907,7 @@
     </row>
     <row r="242" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE242" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="AF242">
         <v>10600</v>
@@ -5115,7 +5915,7 @@
     </row>
     <row r="243" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE243" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="AF243">
         <v>20000</v>
@@ -5123,7 +5923,7 @@
     </row>
     <row r="244" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE244" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF244">
         <v>5700</v>
@@ -5131,7 +5931,7 @@
     </row>
     <row r="245" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE245" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="AF245">
         <v>5700</v>
@@ -5139,7 +5939,7 @@
     </row>
     <row r="246" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE246" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AF246">
         <v>20000</v>
@@ -5147,7 +5947,7 @@
     </row>
     <row r="247" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE247" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AF247">
         <v>10600</v>
@@ -5155,7 +5955,7 @@
     </row>
     <row r="248" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE248" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="AF248">
         <v>5700</v>
@@ -5163,7 +5963,7 @@
     </row>
     <row r="249" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE249" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="AF249">
         <v>5700</v>
@@ -5171,7 +5971,7 @@
     </row>
     <row r="250" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE250" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="AF250">
         <v>5700</v>
@@ -5179,7 +5979,7 @@
     </row>
     <row r="251" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE251" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="AF251">
         <v>5700</v>
@@ -5187,7 +5987,7 @@
     </row>
     <row r="252" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE252" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="AF252">
         <v>5700</v>
@@ -5195,7 +5995,7 @@
     </row>
     <row r="253" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE253" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="AF253">
         <v>10600</v>
@@ -5203,7 +6003,7 @@
     </row>
     <row r="254" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE254" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AF254">
         <v>5700</v>
@@ -5211,7 +6011,7 @@
     </row>
     <row r="255" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE255" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="AF255">
         <v>5700</v>
@@ -5219,7 +6019,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -5227,7 +6027,7 @@
     </row>
     <row r="257" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE257" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="AF257">
         <v>5700</v>
@@ -5235,7 +6035,7 @@
     </row>
     <row r="258" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE258" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="AF258">
         <v>5700</v>
@@ -5243,7 +6043,7 @@
     </row>
     <row r="259" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE259" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="AF259">
         <v>20000</v>
@@ -5251,7 +6051,7 @@
     </row>
     <row r="260" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE260" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="AF260">
         <v>5700</v>
@@ -5259,7 +6059,7 @@
     </row>
     <row r="261" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE261" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AF261">
         <v>5700</v>
@@ -5267,7 +6067,7 @@
     </row>
     <row r="262" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE262" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AF262">
         <v>20000</v>
@@ -5275,7 +6075,7 @@
     </row>
     <row r="263" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE263" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AF263">
         <v>20000</v>
@@ -5283,7 +6083,7 @@
     </row>
     <row r="264" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE264" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AF264">
         <v>10600</v>
@@ -5291,7 +6091,7 @@
     </row>
     <row r="265" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE265" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AF265">
         <v>20000</v>
@@ -5299,7 +6099,7 @@
     </row>
     <row r="266" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE266" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="AF266">
         <v>5700</v>
@@ -5307,7 +6107,7 @@
     </row>
     <row r="267" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE267" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="AF267">
         <v>20000</v>
@@ -5315,7 +6115,7 @@
     </row>
     <row r="268" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE268" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="AF268">
         <v>10600</v>
@@ -5323,7 +6123,7 @@
     </row>
     <row r="269" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE269" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF269">
         <v>5700</v>
@@ -5331,7 +6131,7 @@
     </row>
     <row r="270" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE270" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="AF270">
         <v>10600</v>
@@ -5339,7 +6139,7 @@
     </row>
     <row r="271" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE271" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="AF271">
         <v>5700</v>
@@ -5347,7 +6147,7 @@
     </row>
     <row r="272" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE272" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AF272">
         <v>20000</v>
@@ -5355,7 +6155,7 @@
     </row>
     <row r="273" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE273" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="AF273">
         <v>5700</v>
@@ -5363,7 +6163,7 @@
     </row>
     <row r="274" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE274" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AF274">
         <v>10600</v>
@@ -5371,7 +6171,7 @@
     </row>
     <row r="275" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE275" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AF275">
         <v>10600</v>
@@ -5379,7 +6179,7 @@
     </row>
     <row r="276" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE276" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="AF276">
         <v>10600</v>
@@ -5387,7 +6187,7 @@
     </row>
     <row r="277" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE277" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AF277">
         <v>5700</v>
@@ -5395,7 +6195,7 @@
     </row>
     <row r="278" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE278" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AF278">
         <v>5700</v>
@@ -5403,7 +6203,7 @@
     </row>
     <row r="279" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE279" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="AF279">
         <v>5700</v>
@@ -5411,7 +6211,7 @@
     </row>
     <row r="280" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE280" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AF280">
         <v>5700</v>
@@ -5419,7 +6219,7 @@
     </row>
     <row r="281" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE281" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AF281">
         <v>10600</v>
@@ -5427,7 +6227,7 @@
     </row>
     <row r="282" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE282" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AF282">
         <v>5700</v>
@@ -5435,7 +6235,7 @@
     </row>
     <row r="283" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE283" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AF283">
         <v>5700</v>
@@ -5443,7 +6243,7 @@
     </row>
     <row r="284" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE284" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AF284">
         <v>5700</v>
@@ -5451,7 +6251,7 @@
     </row>
     <row r="285" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE285" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="AF285">
         <v>10600</v>
@@ -5459,7 +6259,7 @@
     </row>
     <row r="286" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE286" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="AF286">
         <v>20000</v>
@@ -5467,7 +6267,7 @@
     </row>
     <row r="287" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE287" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="AF287">
         <v>5700</v>
@@ -5475,7 +6275,7 @@
     </row>
     <row r="288" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE288" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AF288">
         <v>20000</v>
@@ -5483,7 +6283,7 @@
     </row>
     <row r="289" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE289" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="AF289">
         <v>10600</v>
@@ -5491,7 +6291,7 @@
     </row>
     <row r="290" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE290" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="AF290">
         <v>20000</v>
@@ -5499,7 +6299,7 @@
     </row>
     <row r="291" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE291" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="AF291">
         <v>5700</v>
@@ -5507,7 +6307,7 @@
     </row>
     <row r="292" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE292" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="AF292">
         <v>5700</v>
@@ -5515,7 +6315,7 @@
     </row>
     <row r="293" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE293" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AF293">
         <v>5700</v>
@@ -5523,7 +6323,7 @@
     </row>
     <row r="294" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE294" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AF294">
         <v>10600</v>
@@ -5531,7 +6331,7 @@
     </row>
     <row r="295" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE295" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="AF295">
         <v>20000</v>
@@ -5539,7 +6339,7 @@
     </row>
     <row r="296" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE296" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="AF296">
         <v>5700</v>
@@ -5547,7 +6347,7 @@
     </row>
     <row r="297" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE297" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AF297">
         <v>5700</v>
@@ -5555,7 +6355,7 @@
     </row>
     <row r="298" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE298" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="AF298">
         <v>5700</v>
@@ -5563,7 +6363,7 @@
     </row>
     <row r="299" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE299" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="AF299">
         <v>10600</v>
@@ -5571,7 +6371,7 @@
     </row>
     <row r="300" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE300" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="AF300">
         <v>5700</v>
@@ -5579,7 +6379,7 @@
     </row>
     <row r="301" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE301" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="AF301">
         <v>20000</v>
@@ -5587,7 +6387,7 @@
     </row>
     <row r="302" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE302" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="AF302">
         <v>20000</v>
@@ -5595,7 +6395,7 @@
     </row>
     <row r="303" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE303" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="AF303">
         <v>5700</v>
@@ -5603,7 +6403,7 @@
     </row>
     <row r="304" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE304" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AF304">
         <v>5700</v>
@@ -5611,7 +6411,7 @@
     </row>
     <row r="305" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE305" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="AF305">
         <v>10600</v>
@@ -5673,7 +6473,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="AE1" s="2" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AF1" s="2">
         <v>900</v>
@@ -5693,7 +6493,7 @@
         <f>VLOOKUP(B2,AE1:AF73,2,0)</f>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="AF2" s="3">
         <v>900</v>
@@ -5720,7 +6520,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="AE3" s="6" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="AF3" s="6">
         <v>900</v>
@@ -5728,10 +6528,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D40)</f>
+        <f>SUM(D5:D27)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E40)</f>
+        <f>SUM(E5:E27)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -5761,61 +6561,61 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AF4" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="13">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="A5" s="10">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10">
+        <v>40</v>
+      </c>
+      <c r="D5" s="10">
         <f>COUNTA(F5:AD5)</f>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
       <c r="AE5" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="AF5">
         <v>900</v>
@@ -5826,10 +6626,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10">
         <f>COUNTA(F6:AD6)</f>
@@ -5869,7 +6669,7 @@
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AF6">
         <v>900</v>
@@ -5880,10 +6680,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10">
         <f>COUNTA(F7:AD7)</f>
@@ -5917,7 +6717,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="AF7">
         <v>900</v>
@@ -5928,10 +6728,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C8" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10">
         <f>COUNTA(F8:AD8)</f>
@@ -5965,7 +6765,7 @@
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="AF8">
         <v>900</v>
@@ -5976,10 +6776,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10">
         <f>COUNTA(F9:AD9)</f>
@@ -6013,7 +6813,7 @@
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AF9">
         <v>900</v>
@@ -6024,10 +6824,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C10" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <f>COUNTA(F10:AD10)</f>
@@ -6061,487 +6861,487 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="AF10">
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="10">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="13">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <f>C11*D11</f>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
       <c r="AE11" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="AF11">
         <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="10">
-        <v>65</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="13">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <f>C12*D12</f>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
       <c r="AE12" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="AF12">
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>5</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="10">
-        <v>65</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="13">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="13">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="AF13">
         <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="10">
-        <v>65</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="13">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="13">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
       <c r="AE14" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AF14">
         <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>5</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="10">
-        <v>65</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="13">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13">
         <f>COUNTA(F15:AD15)</f>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <f>C15*D15</f>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
       <c r="AE15" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="AF15">
         <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="10">
-        <v>65</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="A16" s="13">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="13">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
         <f>COUNTA(F16:AD16)</f>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="13">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
       <c r="AE16" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AF16">
         <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" s="10">
-        <v>65</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="A17" s="13">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="13">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="13">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
       <c r="AE17" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="AF17">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>5</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="10">
-        <v>40</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="A18" s="13">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="13">
+        <v>22</v>
+      </c>
+      <c r="D18" s="13">
         <f>COUNTA(F18:AD18)</f>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="13">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
       <c r="AE18" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AF18">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>5</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" s="10">
-        <v>40</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="A19" s="13">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="13">
+        <v>22</v>
+      </c>
+      <c r="D19" s="13">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="13">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
       <c r="AE19" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AF19">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>5</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="10">
-        <v>40</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="A20" s="13">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="13">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="13">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="AF20">
         <v>900</v>
@@ -6549,13 +7349,13 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C21" s="10">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D21" s="10">
         <f>COUNTA(F21:AD21)</f>
@@ -6589,7 +7389,7 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AF21">
         <v>900</v>
@@ -6597,13 +7397,13 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C22" s="10">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D22" s="10">
         <f>COUNTA(F22:AD22)</f>
@@ -6637,7 +7437,7 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AF22">
         <v>900</v>
@@ -6645,13 +7445,13 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C23" s="10">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D23" s="10">
         <f>COUNTA(F23:AD23)</f>
@@ -6685,821 +7485,301 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="AF23">
         <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>6</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="13">
-        <v>40</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" s="10">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
       <c r="AE24" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AF24">
         <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>6</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="13">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="A25" s="10">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="10">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10">
         <f>COUNTA(F25:AD25)</f>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <f>C25*D25</f>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
       <c r="AE25" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="AF25">
         <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>6</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C26" s="13">
-        <v>22</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="A26" s="10">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="10">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AF26">
         <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C27" s="13">
-        <v>22</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="A27" s="10">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
         <f>COUNTA(F27:AD27)</f>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <f>C27*D27</f>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
       <c r="AE27" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AF27">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>6</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C28" s="13">
-        <v>22</v>
-      </c>
-      <c r="D28" s="13">
-        <f>COUNTA(F28:AD28)</f>
-      </c>
-      <c r="E28" s="13">
-        <f>C28*D28</f>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
+    <row r="28" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AF28">
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>6</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C29" s="13">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13">
-        <f>COUNTA(F29:AD29)</f>
-      </c>
-      <c r="E29" s="13">
-        <f>C29*D29</f>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
+    <row r="29" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AF29">
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>6</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="13">
-        <v>22</v>
-      </c>
-      <c r="D30" s="13">
-        <f>COUNTA(F30:AD30)</f>
-      </c>
-      <c r="E30" s="13">
-        <f>C30*D30</f>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
+    <row r="30" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AF30">
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>6</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="13">
-        <v>22</v>
-      </c>
-      <c r="D31" s="13">
-        <f>COUNTA(F31:AD31)</f>
-      </c>
-      <c r="E31" s="13">
-        <f>C31*D31</f>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
+    <row r="31" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AF31">
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>6</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="13">
-        <v>22</v>
-      </c>
-      <c r="D32" s="13">
-        <f>COUNTA(F32:AD32)</f>
-      </c>
-      <c r="E32" s="13">
-        <f>C32*D32</f>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
+    <row r="32" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AF32">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>6</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C33" s="13">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13">
-        <f>COUNTA(F33:AD33)</f>
-      </c>
-      <c r="E33" s="13">
-        <f>C33*D33</f>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
+    <row r="33" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AF33">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>7</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C34" s="10">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10">
-        <f>COUNTA(F34:AD34)</f>
-      </c>
-      <c r="E34" s="10">
-        <f>C34*D34</f>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
+    <row r="34" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE34" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AF34">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>7</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C35" s="10">
-        <v>17</v>
-      </c>
-      <c r="D35" s="10">
-        <f>COUNTA(F35:AD35)</f>
-      </c>
-      <c r="E35" s="10">
-        <f>C35*D35</f>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
+    <row r="35" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AF35">
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>7</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C36" s="10">
-        <v>17</v>
-      </c>
-      <c r="D36" s="10">
-        <f>COUNTA(F36:AD36)</f>
-      </c>
-      <c r="E36" s="10">
-        <f>C36*D36</f>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
+    <row r="36" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE36" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AF36">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>7</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C37" s="10">
-        <v>17</v>
-      </c>
-      <c r="D37" s="10">
-        <f>COUNTA(F37:AD37)</f>
-      </c>
-      <c r="E37" s="10">
-        <f>C37*D37</f>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
+    <row r="37" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE37" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF37">
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>7</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" s="10">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10">
-        <f>COUNTA(F38:AD38)</f>
-      </c>
-      <c r="E38" s="10">
-        <f>C38*D38</f>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
+    <row r="38" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF38">
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>7</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C39" s="10">
-        <v>17</v>
-      </c>
-      <c r="D39" s="10">
-        <f>COUNTA(F39:AD39)</f>
-      </c>
-      <c r="E39" s="10">
-        <f>C39*D39</f>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
+    <row r="39" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF39">
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>7</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C40" s="10">
-        <v>10</v>
-      </c>
-      <c r="D40" s="10">
-        <f>COUNTA(F40:AD40)</f>
-      </c>
-      <c r="E40" s="10">
-        <f>C40*D40</f>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
+    <row r="40" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE40" t="s">
         <v>419</v>
       </c>
